--- a/data-migration/xlsx_1900-/1916_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1916_Sommer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C631BCE7-D159-490D-A6EB-D908FECC1051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FDC0C7-6C08-415A-8F2E-1E8A013D08A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="1408">
   <si>
     <t>Sommer</t>
   </si>
@@ -4241,6 +4241,9 @@
   </si>
   <si>
     <t>Rektor</t>
+  </si>
+  <si>
+    <t>Prof</t>
   </si>
 </sst>
 </file>
@@ -4591,7 +4594,7 @@
   <dimension ref="A1:L456"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="I193" sqref="I193"/>
+      <selection activeCell="H197" sqref="H197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9535,7 +9538,7 @@
         <v>1277</v>
       </c>
       <c r="I188" t="s">
-        <v>1391</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -9561,7 +9564,7 @@
         <v>1277</v>
       </c>
       <c r="I189" t="s">
-        <v>1391</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -9587,7 +9590,7 @@
         <v>1277</v>
       </c>
       <c r="I190" t="s">
-        <v>1391</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -9705,7 +9708,7 @@
         <v>1366</v>
       </c>
       <c r="I195" t="s">
-        <v>1391</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -9731,7 +9734,7 @@
         <v>1366</v>
       </c>
       <c r="I196" t="s">
-        <v>1391</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -9757,7 +9760,7 @@
         <v>1366</v>
       </c>
       <c r="I197" t="s">
-        <v>1391</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -9783,7 +9786,7 @@
         <v>1366</v>
       </c>
       <c r="I198" t="s">
-        <v>1391</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">

--- a/data-migration/xlsx_1900-/1916_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1916_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FDC0C7-6C08-415A-8F2E-1E8A013D08A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF28D9C-A6D3-4FDC-8251-47A4A7D5DCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="1407">
   <si>
     <t>Sommer</t>
   </si>
@@ -4081,9 +4081,6 @@
     <t>meyer_a</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>huber_m</t>
   </si>
   <si>
@@ -4162,9 +4159,6 @@
     <t>schinz_h</t>
   </si>
   <si>
-    <t>nager _fr</t>
-  </si>
-  <si>
     <t>maier_hw</t>
   </si>
   <si>
@@ -4189,9 +4183,6 @@
     <t>koehler_l1</t>
   </si>
   <si>
-    <t>anderes _e</t>
-  </si>
-  <si>
     <t>freytag_w</t>
   </si>
   <si>
@@ -4244,6 +4235,12 @@
   </si>
   <si>
     <t>Prof</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>nager_fr</t>
   </si>
 </sst>
 </file>
@@ -4594,18 +4591,18 @@
   <dimension ref="A1:L456"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="H197" sqref="H197"/>
+      <selection activeCell="H184" sqref="H184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1"/>
+    <col min="8" max="8" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1916</v>
       </c>
@@ -4628,10 +4625,10 @@
         <v>1351</v>
       </c>
       <c r="I1" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1916</v>
       </c>
@@ -4651,16 +4648,16 @@
         <v>918</v>
       </c>
       <c r="H2" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="I2" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="J2" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1916</v>
       </c>
@@ -4683,10 +4680,10 @@
         <v>1224</v>
       </c>
       <c r="I3" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1916</v>
       </c>
@@ -4709,10 +4706,10 @@
         <v>1224</v>
       </c>
       <c r="I4" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1916</v>
       </c>
@@ -4735,10 +4732,10 @@
         <v>1224</v>
       </c>
       <c r="I5" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1916</v>
       </c>
@@ -4758,16 +4755,16 @@
         <v>922</v>
       </c>
       <c r="H6" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="I6" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="J6" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1916</v>
       </c>
@@ -4790,10 +4787,10 @@
         <v>1225</v>
       </c>
       <c r="I7" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1916</v>
       </c>
@@ -4816,10 +4813,10 @@
         <v>1226</v>
       </c>
       <c r="I8" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1916</v>
       </c>
@@ -4842,10 +4839,10 @@
         <v>1352</v>
       </c>
       <c r="I9" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1916</v>
       </c>
@@ -4868,10 +4865,10 @@
         <v>1226</v>
       </c>
       <c r="I10" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1916</v>
       </c>
@@ -4894,10 +4891,10 @@
         <v>1225</v>
       </c>
       <c r="I11" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1916</v>
       </c>
@@ -4920,10 +4917,10 @@
         <v>1352</v>
       </c>
       <c r="I12" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1916</v>
       </c>
@@ -4946,10 +4943,10 @@
         <v>1223</v>
       </c>
       <c r="I13" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1916</v>
       </c>
@@ -4972,10 +4969,10 @@
         <v>1223</v>
       </c>
       <c r="I14" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1916</v>
       </c>
@@ -4998,10 +4995,10 @@
         <v>1223</v>
       </c>
       <c r="I15" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1916</v>
       </c>
@@ -5024,10 +5021,10 @@
         <v>1351</v>
       </c>
       <c r="I16" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1916</v>
       </c>
@@ -5050,10 +5047,10 @@
         <v>1227</v>
       </c>
       <c r="I17" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1916</v>
       </c>
@@ -5076,10 +5073,10 @@
         <v>1227</v>
       </c>
       <c r="I18" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1916</v>
       </c>
@@ -5102,10 +5099,10 @@
         <v>1352</v>
       </c>
       <c r="I19" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1916</v>
       </c>
@@ -5128,10 +5125,10 @@
         <v>1227</v>
       </c>
       <c r="I20" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1916</v>
       </c>
@@ -5154,10 +5151,10 @@
         <v>1224</v>
       </c>
       <c r="I21" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1916</v>
       </c>
@@ -5180,10 +5177,10 @@
         <v>1225</v>
       </c>
       <c r="I22" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1916</v>
       </c>
@@ -5206,10 +5203,10 @@
         <v>1352</v>
       </c>
       <c r="I23" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1916</v>
       </c>
@@ -5232,10 +5229,10 @@
         <v>1223</v>
       </c>
       <c r="I24" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1916</v>
       </c>
@@ -5258,10 +5255,10 @@
         <v>1351</v>
       </c>
       <c r="I25" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1916</v>
       </c>
@@ -5284,10 +5281,10 @@
         <v>1352</v>
       </c>
       <c r="I26" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1916</v>
       </c>
@@ -5310,10 +5307,10 @@
         <v>1227</v>
       </c>
       <c r="I27" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1916</v>
       </c>
@@ -5336,10 +5333,10 @@
         <v>1228</v>
       </c>
       <c r="I28" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1916</v>
       </c>
@@ -5362,13 +5359,13 @@
         <v>1229</v>
       </c>
       <c r="I29" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J29" t="s">
         <v>1391</v>
       </c>
-      <c r="J29" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1916</v>
       </c>
@@ -5391,10 +5388,10 @@
         <v>1230</v>
       </c>
       <c r="I30" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1916</v>
       </c>
@@ -5417,10 +5414,10 @@
         <v>1228</v>
       </c>
       <c r="I31" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1916</v>
       </c>
@@ -5443,10 +5440,10 @@
         <v>1231</v>
       </c>
       <c r="I32" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1916</v>
       </c>
@@ -5469,10 +5466,10 @@
         <v>1231</v>
       </c>
       <c r="I33" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1916</v>
       </c>
@@ -5492,13 +5489,13 @@
         <v>948</v>
       </c>
       <c r="H34" t="s">
-        <v>1353</v>
+        <v>1405</v>
       </c>
       <c r="I34" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1916</v>
       </c>
@@ -5518,13 +5515,13 @@
         <v>949</v>
       </c>
       <c r="H35" t="s">
-        <v>1353</v>
+        <v>1405</v>
       </c>
       <c r="I35" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1916</v>
       </c>
@@ -5547,10 +5544,10 @@
         <v>1232</v>
       </c>
       <c r="I36" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1916</v>
       </c>
@@ -5573,10 +5570,10 @@
         <v>1233</v>
       </c>
       <c r="I37" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1916</v>
       </c>
@@ -5599,10 +5596,10 @@
         <v>1234</v>
       </c>
       <c r="I38" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1916</v>
       </c>
@@ -5625,10 +5622,10 @@
         <v>1235</v>
       </c>
       <c r="I39" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1916</v>
       </c>
@@ -5651,10 +5648,10 @@
         <v>1234</v>
       </c>
       <c r="I40" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1916</v>
       </c>
@@ -5677,10 +5674,10 @@
         <v>1234</v>
       </c>
       <c r="I41" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1916</v>
       </c>
@@ -5703,10 +5700,10 @@
         <v>1235</v>
       </c>
       <c r="I42" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1916</v>
       </c>
@@ -5729,10 +5726,10 @@
         <v>1235</v>
       </c>
       <c r="I43" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1916</v>
       </c>
@@ -5752,13 +5749,13 @@
         <v>958</v>
       </c>
       <c r="H44" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="I44" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1916</v>
       </c>
@@ -5781,10 +5778,10 @@
         <v>1236</v>
       </c>
       <c r="I45" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1916</v>
       </c>
@@ -5807,10 +5804,10 @@
         <v>1237</v>
       </c>
       <c r="I46" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1916</v>
       </c>
@@ -5833,10 +5830,10 @@
         <v>1237</v>
       </c>
       <c r="I47" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1916</v>
       </c>
@@ -5859,10 +5856,10 @@
         <v>1236</v>
       </c>
       <c r="I48" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1916</v>
       </c>
@@ -5885,10 +5882,10 @@
         <v>1236</v>
       </c>
       <c r="I49" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1916</v>
       </c>
@@ -5911,10 +5908,10 @@
         <v>1238</v>
       </c>
       <c r="I50" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1916</v>
       </c>
@@ -5937,10 +5934,10 @@
         <v>1239</v>
       </c>
       <c r="I51" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1916</v>
       </c>
@@ -5963,10 +5960,10 @@
         <v>1239</v>
       </c>
       <c r="I52" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1916</v>
       </c>
@@ -5989,10 +5986,10 @@
         <v>1240</v>
       </c>
       <c r="I53" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1916</v>
       </c>
@@ -6015,10 +6012,10 @@
         <v>1240</v>
       </c>
       <c r="I54" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1916</v>
       </c>
@@ -6041,10 +6038,10 @@
         <v>1241</v>
       </c>
       <c r="I55" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1916</v>
       </c>
@@ -6064,13 +6061,13 @@
         <v>969</v>
       </c>
       <c r="H56" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I56" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1916</v>
       </c>
@@ -6093,10 +6090,10 @@
         <v>1243</v>
       </c>
       <c r="I57" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1916</v>
       </c>
@@ -6116,13 +6113,13 @@
         <v>971</v>
       </c>
       <c r="H58" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="I58" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1916</v>
       </c>
@@ -6142,13 +6139,13 @@
         <v>972</v>
       </c>
       <c r="H59" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="I59" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1916</v>
       </c>
@@ -6168,13 +6165,13 @@
         <v>941</v>
       </c>
       <c r="H60" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="I60" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1916</v>
       </c>
@@ -6197,10 +6194,10 @@
         <v>1245</v>
       </c>
       <c r="I61" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1916</v>
       </c>
@@ -6223,10 +6220,10 @@
         <v>1245</v>
       </c>
       <c r="I62" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1916</v>
       </c>
@@ -6249,10 +6246,10 @@
         <v>1246</v>
       </c>
       <c r="I63" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1916</v>
       </c>
@@ -6275,13 +6272,13 @@
         <v>1229</v>
       </c>
       <c r="I64" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J64" t="s">
         <v>1391</v>
       </c>
-      <c r="J64" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1916</v>
       </c>
@@ -6304,10 +6301,10 @@
         <v>1228</v>
       </c>
       <c r="I65" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1916</v>
       </c>
@@ -6330,10 +6327,10 @@
         <v>1235</v>
       </c>
       <c r="I66" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1916</v>
       </c>
@@ -6353,13 +6350,13 @@
         <v>977</v>
       </c>
       <c r="H67" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="I67" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1916</v>
       </c>
@@ -6382,10 +6379,10 @@
         <v>1234</v>
       </c>
       <c r="I68" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1916</v>
       </c>
@@ -6408,10 +6405,10 @@
         <v>1237</v>
       </c>
       <c r="I69" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1916</v>
       </c>
@@ -6431,13 +6428,13 @@
         <v>977</v>
       </c>
       <c r="H70" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="I70" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1916</v>
       </c>
@@ -6460,10 +6457,10 @@
         <v>1238</v>
       </c>
       <c r="I71" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1916</v>
       </c>
@@ -6486,10 +6483,10 @@
         <v>1239</v>
       </c>
       <c r="I72" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1916</v>
       </c>
@@ -6512,10 +6509,10 @@
         <v>1239</v>
       </c>
       <c r="I73" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1916</v>
       </c>
@@ -6538,10 +6535,10 @@
         <v>1240</v>
       </c>
       <c r="I74" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1916</v>
       </c>
@@ -6564,10 +6561,10 @@
         <v>1241</v>
       </c>
       <c r="I75" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1916</v>
       </c>
@@ -6590,10 +6587,10 @@
         <v>1242</v>
       </c>
       <c r="I76" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1916</v>
       </c>
@@ -6616,10 +6613,10 @@
         <v>1242</v>
       </c>
       <c r="I77" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1916</v>
       </c>
@@ -6639,13 +6636,13 @@
         <v>983</v>
       </c>
       <c r="H78" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="I78" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1916</v>
       </c>
@@ -6668,10 +6665,10 @@
         <v>1245</v>
       </c>
       <c r="I79" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1916</v>
       </c>
@@ -6694,10 +6691,10 @@
         <v>1245</v>
       </c>
       <c r="I80" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1916</v>
       </c>
@@ -6720,10 +6717,10 @@
         <v>1245</v>
       </c>
       <c r="I81" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1916</v>
       </c>
@@ -6743,13 +6740,13 @@
         <v>977</v>
       </c>
       <c r="H82" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="I82" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1916</v>
       </c>
@@ -6775,10 +6772,10 @@
         <v>1247</v>
       </c>
       <c r="I83" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1916</v>
       </c>
@@ -6804,10 +6801,10 @@
         <v>1247</v>
       </c>
       <c r="I84" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1916</v>
       </c>
@@ -6830,10 +6827,10 @@
         <v>1247</v>
       </c>
       <c r="I85" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1916</v>
       </c>
@@ -6856,10 +6853,10 @@
         <v>1247</v>
       </c>
       <c r="I86" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1916</v>
       </c>
@@ -6882,10 +6879,10 @@
         <v>1247</v>
       </c>
       <c r="I87" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1916</v>
       </c>
@@ -6911,10 +6908,10 @@
         <v>1248</v>
       </c>
       <c r="I88" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1916</v>
       </c>
@@ -6940,10 +6937,10 @@
         <v>1248</v>
       </c>
       <c r="I89" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1916</v>
       </c>
@@ -6966,10 +6963,10 @@
         <v>1248</v>
       </c>
       <c r="I90" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1916</v>
       </c>
@@ -6992,10 +6989,10 @@
         <v>1249</v>
       </c>
       <c r="I91" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1916</v>
       </c>
@@ -7015,13 +7012,13 @@
         <v>995</v>
       </c>
       <c r="H92" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="I92" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1916</v>
       </c>
@@ -7041,13 +7038,13 @@
         <v>990</v>
       </c>
       <c r="H93" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="I93" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1916</v>
       </c>
@@ -7070,10 +7067,10 @@
         <v>1250</v>
       </c>
       <c r="I94" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1916</v>
       </c>
@@ -7096,10 +7093,10 @@
         <v>1250</v>
       </c>
       <c r="I95" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1916</v>
       </c>
@@ -7122,10 +7119,10 @@
         <v>1251</v>
       </c>
       <c r="I96" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1916</v>
       </c>
@@ -7148,10 +7145,10 @@
         <v>1251</v>
       </c>
       <c r="I97" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1916</v>
       </c>
@@ -7174,10 +7171,10 @@
         <v>1251</v>
       </c>
       <c r="I98" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1916</v>
       </c>
@@ -7200,10 +7197,10 @@
         <v>1251</v>
       </c>
       <c r="I99" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1916</v>
       </c>
@@ -7226,10 +7223,10 @@
         <v>1251</v>
       </c>
       <c r="I100" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1916</v>
       </c>
@@ -7249,13 +7246,13 @@
         <v>977</v>
       </c>
       <c r="H101" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="I101" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1916</v>
       </c>
@@ -7278,10 +7275,10 @@
         <v>1252</v>
       </c>
       <c r="I102" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1916</v>
       </c>
@@ -7304,10 +7301,10 @@
         <v>1252</v>
       </c>
       <c r="I103" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1916</v>
       </c>
@@ -7330,10 +7327,10 @@
         <v>1252</v>
       </c>
       <c r="I104" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1916</v>
       </c>
@@ -7356,10 +7353,10 @@
         <v>1252</v>
       </c>
       <c r="I105" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1916</v>
       </c>
@@ -7382,10 +7379,10 @@
         <v>1252</v>
       </c>
       <c r="I106" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1916</v>
       </c>
@@ -7408,10 +7405,10 @@
         <v>1253</v>
       </c>
       <c r="I107" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1916</v>
       </c>
@@ -7431,13 +7428,13 @@
         <v>1003</v>
       </c>
       <c r="H108" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="I108" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1916</v>
       </c>
@@ -7457,19 +7454,19 @@
         <v>1004</v>
       </c>
       <c r="H109" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="I109" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="K109" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="L109" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1916</v>
       </c>
@@ -7489,13 +7486,13 @@
         <v>1005</v>
       </c>
       <c r="H110" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="I110" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1916</v>
       </c>
@@ -7518,10 +7515,10 @@
         <v>1254</v>
       </c>
       <c r="I111" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1916</v>
       </c>
@@ -7544,10 +7541,10 @@
         <v>1254</v>
       </c>
       <c r="I112" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1916</v>
       </c>
@@ -7570,10 +7567,10 @@
         <v>1254</v>
       </c>
       <c r="I113" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1916</v>
       </c>
@@ -7596,10 +7593,10 @@
         <v>1254</v>
       </c>
       <c r="I114" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1916</v>
       </c>
@@ -7622,10 +7619,10 @@
         <v>1242</v>
       </c>
       <c r="I115" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1916</v>
       </c>
@@ -7648,10 +7645,10 @@
         <v>1242</v>
       </c>
       <c r="I116" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1916</v>
       </c>
@@ -7674,10 +7671,10 @@
         <v>1255</v>
       </c>
       <c r="I117" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1916</v>
       </c>
@@ -7700,10 +7697,10 @@
         <v>1255</v>
       </c>
       <c r="I118" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1916</v>
       </c>
@@ -7726,10 +7723,10 @@
         <v>1255</v>
       </c>
       <c r="I119" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1916</v>
       </c>
@@ -7752,10 +7749,10 @@
         <v>1256</v>
       </c>
       <c r="I120" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1916</v>
       </c>
@@ -7778,10 +7775,10 @@
         <v>1256</v>
       </c>
       <c r="I121" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1916</v>
       </c>
@@ -7801,13 +7798,13 @@
         <v>924</v>
       </c>
       <c r="H122" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="I122" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1916</v>
       </c>
@@ -7830,10 +7827,10 @@
         <v>1257</v>
       </c>
       <c r="I123" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1916</v>
       </c>
@@ -7856,10 +7853,10 @@
         <v>1257</v>
       </c>
       <c r="I124" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1916</v>
       </c>
@@ -7882,10 +7879,10 @@
         <v>1258</v>
       </c>
       <c r="I125" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1916</v>
       </c>
@@ -7908,10 +7905,10 @@
         <v>1258</v>
       </c>
       <c r="I126" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1916</v>
       </c>
@@ -7934,10 +7931,10 @@
         <v>1258</v>
       </c>
       <c r="I127" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1916</v>
       </c>
@@ -7957,13 +7954,13 @@
         <v>1014</v>
       </c>
       <c r="H128" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="I128" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1916</v>
       </c>
@@ -7986,10 +7983,10 @@
         <v>1259</v>
       </c>
       <c r="I129" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1916</v>
       </c>
@@ -8012,10 +8009,10 @@
         <v>1259</v>
       </c>
       <c r="I130" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1916</v>
       </c>
@@ -8038,10 +8035,10 @@
         <v>1259</v>
       </c>
       <c r="I131" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1916</v>
       </c>
@@ -8061,13 +8058,13 @@
         <v>1018</v>
       </c>
       <c r="H132" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="I132" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1916</v>
       </c>
@@ -8087,13 +8084,13 @@
         <v>1019</v>
       </c>
       <c r="H133" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="I133" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1916</v>
       </c>
@@ -8113,13 +8110,13 @@
         <v>1020</v>
       </c>
       <c r="H134" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="I134" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1916</v>
       </c>
@@ -8142,10 +8139,10 @@
         <v>1260</v>
       </c>
       <c r="I135" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1916</v>
       </c>
@@ -8168,10 +8165,10 @@
         <v>1260</v>
       </c>
       <c r="I136" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1916</v>
       </c>
@@ -8194,10 +8191,10 @@
         <v>1260</v>
       </c>
       <c r="I137" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1916</v>
       </c>
@@ -8220,10 +8217,10 @@
         <v>1261</v>
       </c>
       <c r="I138" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1916</v>
       </c>
@@ -8246,10 +8243,10 @@
         <v>1261</v>
       </c>
       <c r="I139" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1916</v>
       </c>
@@ -8272,10 +8269,10 @@
         <v>1262</v>
       </c>
       <c r="I140" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1916</v>
       </c>
@@ -8295,13 +8292,13 @@
         <v>1026</v>
       </c>
       <c r="H141" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="I141" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1916</v>
       </c>
@@ -8321,13 +8318,13 @@
         <v>1027</v>
       </c>
       <c r="H142" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="I142" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1916</v>
       </c>
@@ -8347,13 +8344,13 @@
         <v>963</v>
       </c>
       <c r="H143" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="I143" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1916</v>
       </c>
@@ -8373,13 +8370,13 @@
         <v>1028</v>
       </c>
       <c r="H144" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="I144" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1916</v>
       </c>
@@ -8399,13 +8396,13 @@
         <v>1029</v>
       </c>
       <c r="H145" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="I145" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1916</v>
       </c>
@@ -8428,10 +8425,10 @@
         <v>1264</v>
       </c>
       <c r="I146" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1916</v>
       </c>
@@ -8454,10 +8451,10 @@
         <v>1265</v>
       </c>
       <c r="I147" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1916</v>
       </c>
@@ -8480,13 +8477,13 @@
         <v>1266</v>
       </c>
       <c r="I148" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J148" t="s">
         <v>1391</v>
       </c>
-      <c r="J148" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1916</v>
       </c>
@@ -8509,13 +8506,13 @@
         <v>1266</v>
       </c>
       <c r="I149" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J149" t="s">
         <v>1391</v>
       </c>
-      <c r="J149" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1916</v>
       </c>
@@ -8538,10 +8535,10 @@
         <v>1267</v>
       </c>
       <c r="I150" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1916</v>
       </c>
@@ -8564,10 +8561,10 @@
         <v>1268</v>
       </c>
       <c r="I151" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1916</v>
       </c>
@@ -8590,16 +8587,16 @@
         <v>1268</v>
       </c>
       <c r="I152" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="K152" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="L152" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1916</v>
       </c>
@@ -8619,13 +8616,13 @@
         <v>1036</v>
       </c>
       <c r="H153" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="I153" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1916</v>
       </c>
@@ -8645,13 +8642,13 @@
         <v>1017</v>
       </c>
       <c r="H154" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="I154" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1916</v>
       </c>
@@ -8671,13 +8668,13 @@
         <v>1037</v>
       </c>
       <c r="H155" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="I155" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1916</v>
       </c>
@@ -8697,13 +8694,13 @@
         <v>924</v>
       </c>
       <c r="H156" t="s">
-        <v>1389</v>
+        <v>1397</v>
       </c>
       <c r="I156" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1916</v>
       </c>
@@ -8726,10 +8723,10 @@
         <v>1269</v>
       </c>
       <c r="I157" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1916</v>
       </c>
@@ -8752,10 +8749,10 @@
         <v>1269</v>
       </c>
       <c r="I158" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1916</v>
       </c>
@@ -8775,13 +8772,13 @@
         <v>977</v>
       </c>
       <c r="H159" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="I159" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1916</v>
       </c>
@@ -8801,13 +8798,13 @@
         <v>1040</v>
       </c>
       <c r="H160" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="I160" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1916</v>
       </c>
@@ -8830,10 +8827,10 @@
         <v>1270</v>
       </c>
       <c r="I161" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1916</v>
       </c>
@@ -8856,10 +8853,10 @@
         <v>1270</v>
       </c>
       <c r="I162" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1916</v>
       </c>
@@ -8882,10 +8879,10 @@
         <v>1271</v>
       </c>
       <c r="I163" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1916</v>
       </c>
@@ -8908,10 +8905,10 @@
         <v>1271</v>
       </c>
       <c r="I164" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1916</v>
       </c>
@@ -8931,13 +8928,13 @@
         <v>1043</v>
       </c>
       <c r="H165" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="I165" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1916</v>
       </c>
@@ -8957,13 +8954,13 @@
         <v>977</v>
       </c>
       <c r="H166" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="I166" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1916</v>
       </c>
@@ -8983,13 +8980,13 @@
         <v>924</v>
       </c>
       <c r="H167" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="I167" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1916</v>
       </c>
@@ -9009,13 +9006,13 @@
         <v>1044</v>
       </c>
       <c r="H168" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="I168" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1916</v>
       </c>
@@ -9035,13 +9032,13 @@
         <v>1045</v>
       </c>
       <c r="H169" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="I169" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1916</v>
       </c>
@@ -9061,13 +9058,13 @@
         <v>1046</v>
       </c>
       <c r="H170" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="I170" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1916</v>
       </c>
@@ -9087,13 +9084,13 @@
         <v>1047</v>
       </c>
       <c r="H171" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I171" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1916</v>
       </c>
@@ -9113,13 +9110,13 @@
         <v>1048</v>
       </c>
       <c r="H172" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I172" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1916</v>
       </c>
@@ -9139,19 +9136,19 @@
         <v>1049</v>
       </c>
       <c r="H173" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I173" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="K173" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="L173" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1916</v>
       </c>
@@ -9171,13 +9168,13 @@
         <v>1050</v>
       </c>
       <c r="H174" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I174" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1916</v>
       </c>
@@ -9197,13 +9194,13 @@
         <v>1051</v>
       </c>
       <c r="H175" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I175" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1916</v>
       </c>
@@ -9223,13 +9220,13 @@
         <v>977</v>
       </c>
       <c r="H176" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="I176" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1916</v>
       </c>
@@ -9252,10 +9249,10 @@
         <v>1272</v>
       </c>
       <c r="I177" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1916</v>
       </c>
@@ -9278,10 +9275,10 @@
         <v>1273</v>
       </c>
       <c r="I178" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1916</v>
       </c>
@@ -9304,10 +9301,10 @@
         <v>1273</v>
       </c>
       <c r="I179" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1916</v>
       </c>
@@ -9330,10 +9327,10 @@
         <v>1273</v>
       </c>
       <c r="I180" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1916</v>
       </c>
@@ -9356,10 +9353,10 @@
         <v>1273</v>
       </c>
       <c r="I181" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1916</v>
       </c>
@@ -9382,10 +9379,10 @@
         <v>1274</v>
       </c>
       <c r="I182" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1916</v>
       </c>
@@ -9405,13 +9402,13 @@
         <v>1054</v>
       </c>
       <c r="H183" t="s">
-        <v>1380</v>
+        <v>1406</v>
       </c>
       <c r="I183" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1916</v>
       </c>
@@ -9431,13 +9428,13 @@
         <v>1055</v>
       </c>
       <c r="H184" t="s">
-        <v>1380</v>
+        <v>1406</v>
       </c>
       <c r="I184" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1916</v>
       </c>
@@ -9457,13 +9454,13 @@
         <v>1056</v>
       </c>
       <c r="H185" t="s">
-        <v>1380</v>
+        <v>1406</v>
       </c>
       <c r="I185" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1916</v>
       </c>
@@ -9486,10 +9483,10 @@
         <v>1275</v>
       </c>
       <c r="I186" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1916</v>
       </c>
@@ -9512,10 +9509,10 @@
         <v>1276</v>
       </c>
       <c r="I187" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1916</v>
       </c>
@@ -9538,10 +9535,10 @@
         <v>1277</v>
       </c>
       <c r="I188" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1916</v>
       </c>
@@ -9564,10 +9561,10 @@
         <v>1277</v>
       </c>
       <c r="I189" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1916</v>
       </c>
@@ -9590,10 +9587,10 @@
         <v>1277</v>
       </c>
       <c r="I190" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1916</v>
       </c>
@@ -9613,10 +9610,10 @@
         <v>1061</v>
       </c>
       <c r="H191" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1916</v>
       </c>
@@ -9636,10 +9633,10 @@
         <v>1062</v>
       </c>
       <c r="H192" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1916</v>
       </c>
@@ -9659,10 +9656,10 @@
         <v>1063</v>
       </c>
       <c r="H193" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1916</v>
       </c>
@@ -9682,10 +9679,10 @@
         <v>1064</v>
       </c>
       <c r="H194" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1916</v>
       </c>
@@ -9705,13 +9702,13 @@
         <v>1065</v>
       </c>
       <c r="H195" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="I195" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1916</v>
       </c>
@@ -9731,13 +9728,13 @@
         <v>1066</v>
       </c>
       <c r="H196" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="I196" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1916</v>
       </c>
@@ -9757,13 +9754,13 @@
         <v>1067</v>
       </c>
       <c r="H197" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="I197" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1916</v>
       </c>
@@ -9783,13 +9780,13 @@
         <v>1068</v>
       </c>
       <c r="H198" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="I198" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1916</v>
       </c>
@@ -9812,10 +9809,10 @@
         <v>1278</v>
       </c>
       <c r="I199" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1916</v>
       </c>
@@ -9838,10 +9835,10 @@
         <v>1278</v>
       </c>
       <c r="I200" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1916</v>
       </c>
@@ -9864,10 +9861,10 @@
         <v>1278</v>
       </c>
       <c r="I201" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1916</v>
       </c>
@@ -9890,10 +9887,10 @@
         <v>1278</v>
       </c>
       <c r="I202" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1916</v>
       </c>
@@ -9916,10 +9913,10 @@
         <v>1278</v>
       </c>
       <c r="I203" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1916</v>
       </c>
@@ -9942,10 +9939,10 @@
         <v>1278</v>
       </c>
       <c r="I204" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1916</v>
       </c>
@@ -9968,10 +9965,10 @@
         <v>1279</v>
       </c>
       <c r="I205" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1916</v>
       </c>
@@ -9994,10 +9991,10 @@
         <v>1279</v>
       </c>
       <c r="I206" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1916</v>
       </c>
@@ -10020,10 +10017,10 @@
         <v>1279</v>
       </c>
       <c r="I207" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1916</v>
       </c>
@@ -10046,10 +10043,10 @@
         <v>1280</v>
       </c>
       <c r="I208" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1916</v>
       </c>
@@ -10072,10 +10069,10 @@
         <v>1280</v>
       </c>
       <c r="I209" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1916</v>
       </c>
@@ -10098,10 +10095,10 @@
         <v>1280</v>
       </c>
       <c r="I210" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1916</v>
       </c>
@@ -10124,10 +10121,10 @@
         <v>1280</v>
       </c>
       <c r="I211" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1916</v>
       </c>
@@ -10150,10 +10147,10 @@
         <v>1280</v>
       </c>
       <c r="I212" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1916</v>
       </c>
@@ -10176,10 +10173,10 @@
         <v>1280</v>
       </c>
       <c r="I213" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1916</v>
       </c>
@@ -10202,13 +10199,13 @@
         <v>1281</v>
       </c>
       <c r="I214" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="J214" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1916</v>
       </c>
@@ -10231,13 +10228,13 @@
         <v>1281</v>
       </c>
       <c r="I215" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="J215" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1916</v>
       </c>
@@ -10260,13 +10257,13 @@
         <v>1281</v>
       </c>
       <c r="I216" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="J216" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1916</v>
       </c>
@@ -10289,10 +10286,10 @@
         <v>1282</v>
       </c>
       <c r="I217" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1916</v>
       </c>
@@ -10315,10 +10312,10 @@
         <v>1282</v>
       </c>
       <c r="I218" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1916</v>
       </c>
@@ -10341,10 +10338,10 @@
         <v>1282</v>
       </c>
       <c r="I219" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1916</v>
       </c>
@@ -10364,13 +10361,13 @@
         <v>1088</v>
       </c>
       <c r="H220" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I220" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1916</v>
       </c>
@@ -10393,10 +10390,10 @@
         <v>1282</v>
       </c>
       <c r="I221" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1916</v>
       </c>
@@ -10416,13 +10413,13 @@
         <v>1090</v>
       </c>
       <c r="H222" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I222" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1916</v>
       </c>
@@ -10445,10 +10442,10 @@
         <v>1282</v>
       </c>
       <c r="I223" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1916</v>
       </c>
@@ -10471,13 +10468,13 @@
         <v>1283</v>
       </c>
       <c r="I224" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J224" t="s">
         <v>1391</v>
       </c>
-      <c r="J224" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1916</v>
       </c>
@@ -10500,13 +10497,13 @@
         <v>1283</v>
       </c>
       <c r="I225" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J225" t="s">
         <v>1391</v>
       </c>
-      <c r="J225" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1916</v>
       </c>
@@ -10529,13 +10526,13 @@
         <v>1283</v>
       </c>
       <c r="I226" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J226" t="s">
         <v>1391</v>
       </c>
-      <c r="J226" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1916</v>
       </c>
@@ -10558,13 +10555,13 @@
         <v>1283</v>
       </c>
       <c r="I227" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J227" t="s">
         <v>1391</v>
       </c>
-      <c r="J227" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1916</v>
       </c>
@@ -10587,13 +10584,13 @@
         <v>1283</v>
       </c>
       <c r="I228" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J228" t="s">
         <v>1391</v>
       </c>
-      <c r="J228" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1916</v>
       </c>
@@ -10616,13 +10613,13 @@
         <v>1283</v>
       </c>
       <c r="I229" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J229" t="s">
         <v>1391</v>
       </c>
-      <c r="J229" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1916</v>
       </c>
@@ -10645,10 +10642,10 @@
         <v>1284</v>
       </c>
       <c r="I230" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1916</v>
       </c>
@@ -10671,10 +10668,10 @@
         <v>1285</v>
       </c>
       <c r="I231" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1916</v>
       </c>
@@ -10697,10 +10694,10 @@
         <v>1285</v>
       </c>
       <c r="I232" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1916</v>
       </c>
@@ -10723,10 +10720,10 @@
         <v>1286</v>
       </c>
       <c r="I233" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1916</v>
       </c>
@@ -10749,10 +10746,10 @@
         <v>1287</v>
       </c>
       <c r="I234" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1916</v>
       </c>
@@ -10775,10 +10772,10 @@
         <v>1287</v>
       </c>
       <c r="I235" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1916</v>
       </c>
@@ -10801,10 +10798,10 @@
         <v>1288</v>
       </c>
       <c r="I236" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1916</v>
       </c>
@@ -10824,13 +10821,13 @@
         <v>1099</v>
       </c>
       <c r="H237" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I237" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1916</v>
       </c>
@@ -10850,13 +10847,13 @@
         <v>1100</v>
       </c>
       <c r="H238" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I238" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1916</v>
       </c>
@@ -10879,10 +10876,10 @@
         <v>1286</v>
       </c>
       <c r="I239" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1916</v>
       </c>
@@ -10905,10 +10902,10 @@
         <v>1289</v>
       </c>
       <c r="I240" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1916</v>
       </c>
@@ -10928,13 +10925,13 @@
         <v>970</v>
       </c>
       <c r="H241" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I241" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1916</v>
       </c>
@@ -10957,10 +10954,10 @@
         <v>1289</v>
       </c>
       <c r="I242" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1916</v>
       </c>
@@ -10983,10 +10980,10 @@
         <v>1289</v>
       </c>
       <c r="I243" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1916</v>
       </c>
@@ -11009,10 +11006,10 @@
         <v>1287</v>
       </c>
       <c r="I244" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1916</v>
       </c>
@@ -11032,13 +11029,13 @@
         <v>1105</v>
       </c>
       <c r="H245" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I245" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1916</v>
       </c>
@@ -11058,13 +11055,13 @@
         <v>964</v>
       </c>
       <c r="H246" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I246" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1916</v>
       </c>
@@ -11087,10 +11084,10 @@
         <v>1286</v>
       </c>
       <c r="I247" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1916</v>
       </c>
@@ -11110,13 +11107,13 @@
         <v>1107</v>
       </c>
       <c r="H248" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I248" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1916</v>
       </c>
@@ -11139,10 +11136,10 @@
         <v>1288</v>
       </c>
       <c r="I249" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1916</v>
       </c>
@@ -11165,10 +11162,10 @@
         <v>1286</v>
       </c>
       <c r="I250" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1916</v>
       </c>
@@ -11191,10 +11188,10 @@
         <v>1286</v>
       </c>
       <c r="I251" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1916</v>
       </c>
@@ -11214,13 +11211,13 @@
         <v>1111</v>
       </c>
       <c r="H252" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I252" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1916</v>
       </c>
@@ -11243,10 +11240,10 @@
         <v>1290</v>
       </c>
       <c r="I253" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1916</v>
       </c>
@@ -11269,10 +11266,10 @@
         <v>1291</v>
       </c>
       <c r="I254" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1916</v>
       </c>
@@ -11295,10 +11292,10 @@
         <v>1292</v>
       </c>
       <c r="I255" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1916</v>
       </c>
@@ -11321,10 +11318,10 @@
         <v>1292</v>
       </c>
       <c r="I256" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1916</v>
       </c>
@@ -11347,10 +11344,10 @@
         <v>1292</v>
       </c>
       <c r="I257" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1916</v>
       </c>
@@ -11373,10 +11370,10 @@
         <v>1292</v>
       </c>
       <c r="I258" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1916</v>
       </c>
@@ -11399,10 +11396,10 @@
         <v>1292</v>
       </c>
       <c r="I259" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1916</v>
       </c>
@@ -11425,10 +11422,10 @@
         <v>1224</v>
       </c>
       <c r="I260" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1916</v>
       </c>
@@ -11451,10 +11448,10 @@
         <v>1293</v>
       </c>
       <c r="I261" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1916</v>
       </c>
@@ -11474,13 +11471,13 @@
         <v>977</v>
       </c>
       <c r="H262" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I262" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1916</v>
       </c>
@@ -11503,10 +11500,10 @@
         <v>1294</v>
       </c>
       <c r="I263" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1916</v>
       </c>
@@ -11529,10 +11526,10 @@
         <v>1294</v>
       </c>
       <c r="I264" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1916</v>
       </c>
@@ -11555,10 +11552,10 @@
         <v>1293</v>
       </c>
       <c r="I265" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1916</v>
       </c>
@@ -11581,10 +11578,10 @@
         <v>1295</v>
       </c>
       <c r="I266" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1916</v>
       </c>
@@ -11604,13 +11601,13 @@
         <v>1121</v>
       </c>
       <c r="H267" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I267" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1916</v>
       </c>
@@ -11630,13 +11627,13 @@
         <v>1122</v>
       </c>
       <c r="H268" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I268" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1916</v>
       </c>
@@ -11656,13 +11653,13 @@
         <v>926</v>
       </c>
       <c r="H269" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I269" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1916</v>
       </c>
@@ -11682,13 +11679,13 @@
         <v>1123</v>
       </c>
       <c r="H270" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I270" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1916</v>
       </c>
@@ -11708,13 +11705,13 @@
         <v>1124</v>
       </c>
       <c r="H271" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I271" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1916</v>
       </c>
@@ -11734,13 +11731,13 @@
         <v>1121</v>
       </c>
       <c r="H272" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I272" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1916</v>
       </c>
@@ -11763,10 +11760,10 @@
         <v>1295</v>
       </c>
       <c r="I273" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1916</v>
       </c>
@@ -11789,10 +11786,10 @@
         <v>1296</v>
       </c>
       <c r="I274" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1916</v>
       </c>
@@ -11815,10 +11812,10 @@
         <v>1293</v>
       </c>
       <c r="I275" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1916</v>
       </c>
@@ -11838,13 +11835,13 @@
         <v>944</v>
       </c>
       <c r="H276" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I276" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1916</v>
       </c>
@@ -11867,10 +11864,10 @@
         <v>1295</v>
       </c>
       <c r="I277" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1916</v>
       </c>
@@ -11893,10 +11890,10 @@
         <v>1293</v>
       </c>
       <c r="I278" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1916</v>
       </c>
@@ -11919,10 +11916,10 @@
         <v>1244</v>
       </c>
       <c r="I279" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1916</v>
       </c>
@@ -11945,10 +11942,10 @@
         <v>1244</v>
       </c>
       <c r="I280" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1916</v>
       </c>
@@ -11971,10 +11968,10 @@
         <v>1244</v>
       </c>
       <c r="I281" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1916</v>
       </c>
@@ -11997,10 +11994,10 @@
         <v>1244</v>
       </c>
       <c r="I282" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1916</v>
       </c>
@@ -12020,13 +12017,13 @@
         <v>1131</v>
       </c>
       <c r="H283" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I283" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1916</v>
       </c>
@@ -12046,13 +12043,13 @@
         <v>984</v>
       </c>
       <c r="H284" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I284" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1916</v>
       </c>
@@ -12075,13 +12072,13 @@
         <v>1297</v>
       </c>
       <c r="I285" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="J285" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1916</v>
       </c>
@@ -12101,13 +12098,13 @@
         <v>1132</v>
       </c>
       <c r="H286" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I286" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1916</v>
       </c>
@@ -12127,13 +12124,13 @@
         <v>1102</v>
       </c>
       <c r="H287" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I287" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1916</v>
       </c>
@@ -12156,13 +12153,13 @@
         <v>1297</v>
       </c>
       <c r="I288" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="J288" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1916</v>
       </c>
@@ -12188,13 +12185,13 @@
         <v>1297</v>
       </c>
       <c r="I289" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="J289" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1916</v>
       </c>
@@ -12214,13 +12211,13 @@
         <v>1129</v>
       </c>
       <c r="H290" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I290" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1916</v>
       </c>
@@ -12240,13 +12237,13 @@
         <v>921</v>
       </c>
       <c r="H291" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I291" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1916</v>
       </c>
@@ -12266,13 +12263,13 @@
         <v>1135</v>
       </c>
       <c r="H292" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I292" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1916</v>
       </c>
@@ -12295,10 +12292,10 @@
         <v>1298</v>
       </c>
       <c r="I293" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1916</v>
       </c>
@@ -12321,10 +12318,10 @@
         <v>1299</v>
       </c>
       <c r="I294" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1916</v>
       </c>
@@ -12344,13 +12341,13 @@
         <v>924</v>
       </c>
       <c r="H295" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I295" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1916</v>
       </c>
@@ -12370,13 +12367,13 @@
         <v>924</v>
       </c>
       <c r="H296" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I296" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1916</v>
       </c>
@@ -12399,10 +12396,10 @@
         <v>1244</v>
       </c>
       <c r="I297" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1916</v>
       </c>
@@ -12425,10 +12422,10 @@
         <v>1244</v>
       </c>
       <c r="I298" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1916</v>
       </c>
@@ -12451,10 +12448,10 @@
         <v>1244</v>
       </c>
       <c r="I299" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1916</v>
       </c>
@@ -12474,13 +12471,13 @@
         <v>977</v>
       </c>
       <c r="H300" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I300" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1916</v>
       </c>
@@ -12503,13 +12500,13 @@
         <v>1297</v>
       </c>
       <c r="I301" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="J301" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1916</v>
       </c>
@@ -12532,10 +12529,10 @@
         <v>1300</v>
       </c>
       <c r="I302" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1916</v>
       </c>
@@ -12561,10 +12558,10 @@
         <v>1300</v>
       </c>
       <c r="I303" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1916</v>
       </c>
@@ -12587,10 +12584,10 @@
         <v>1300</v>
       </c>
       <c r="I304" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1916</v>
       </c>
@@ -12613,10 +12610,10 @@
         <v>1300</v>
       </c>
       <c r="I305" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1916</v>
       </c>
@@ -12639,10 +12636,10 @@
         <v>1300</v>
       </c>
       <c r="I306" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1916</v>
       </c>
@@ -12665,10 +12662,10 @@
         <v>1301</v>
       </c>
       <c r="I307" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1916</v>
       </c>
@@ -12691,10 +12688,10 @@
         <v>1301</v>
       </c>
       <c r="I308" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1916</v>
       </c>
@@ -12717,10 +12714,10 @@
         <v>1302</v>
       </c>
       <c r="I309" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1916</v>
       </c>
@@ -12743,10 +12740,10 @@
         <v>1303</v>
       </c>
       <c r="I310" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1916</v>
       </c>
@@ -12769,10 +12766,10 @@
         <v>1303</v>
       </c>
       <c r="I311" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1916</v>
       </c>
@@ -12795,10 +12792,10 @@
         <v>1303</v>
       </c>
       <c r="I312" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1916</v>
       </c>
@@ -12821,10 +12818,10 @@
         <v>1301</v>
       </c>
       <c r="I313" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1916</v>
       </c>
@@ -12847,10 +12844,10 @@
         <v>1304</v>
       </c>
       <c r="I314" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1916</v>
       </c>
@@ -12873,10 +12870,10 @@
         <v>1304</v>
       </c>
       <c r="I315" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1916</v>
       </c>
@@ -12899,10 +12896,10 @@
         <v>1305</v>
       </c>
       <c r="I316" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1916</v>
       </c>
@@ -12925,10 +12922,10 @@
         <v>1306</v>
       </c>
       <c r="I317" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1916</v>
       </c>
@@ -12951,10 +12948,10 @@
         <v>1306</v>
       </c>
       <c r="I318" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1916</v>
       </c>
@@ -12977,10 +12974,10 @@
         <v>1302</v>
       </c>
       <c r="I319" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1916</v>
       </c>
@@ -13003,10 +13000,10 @@
         <v>1301</v>
       </c>
       <c r="I320" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1916</v>
       </c>
@@ -13029,10 +13026,10 @@
         <v>1303</v>
       </c>
       <c r="I321" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1916</v>
       </c>
@@ -13052,13 +13049,13 @@
         <v>1152</v>
       </c>
       <c r="H322" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I322" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1916</v>
       </c>
@@ -13081,10 +13078,10 @@
         <v>1307</v>
       </c>
       <c r="I323" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1916</v>
       </c>
@@ -13104,13 +13101,13 @@
         <v>1153</v>
       </c>
       <c r="H324" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I324" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1916</v>
       </c>
@@ -13130,13 +13127,13 @@
         <v>1154</v>
       </c>
       <c r="H325" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I325" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1916</v>
       </c>
@@ -13159,10 +13156,10 @@
         <v>1308</v>
       </c>
       <c r="I326" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1916</v>
       </c>
@@ -13185,10 +13182,10 @@
         <v>1307</v>
       </c>
       <c r="I327" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1916</v>
       </c>
@@ -13211,10 +13208,10 @@
         <v>1307</v>
       </c>
       <c r="I328" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1916</v>
       </c>
@@ -13234,13 +13231,13 @@
         <v>1155</v>
       </c>
       <c r="H329" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I329" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1916</v>
       </c>
@@ -13260,13 +13257,13 @@
         <v>1156</v>
       </c>
       <c r="H330" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I330" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1916</v>
       </c>
@@ -13289,13 +13286,13 @@
         <v>1061</v>
       </c>
       <c r="H331" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I331" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1916</v>
       </c>
@@ -13318,10 +13315,10 @@
         <v>1309</v>
       </c>
       <c r="I332" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1916</v>
       </c>
@@ -13344,10 +13341,10 @@
         <v>1310</v>
       </c>
       <c r="I333" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1916</v>
       </c>
@@ -13370,10 +13367,10 @@
         <v>1310</v>
       </c>
       <c r="I334" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1916</v>
       </c>
@@ -13393,13 +13390,13 @@
         <v>1160</v>
       </c>
       <c r="H335" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I335" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1916</v>
       </c>
@@ -13419,13 +13416,13 @@
         <v>1161</v>
       </c>
       <c r="H336" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I336" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1916</v>
       </c>
@@ -13445,13 +13442,13 @@
         <v>1162</v>
       </c>
       <c r="H337" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I337" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1916</v>
       </c>
@@ -13474,10 +13471,10 @@
         <v>1307</v>
       </c>
       <c r="I338" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1916</v>
       </c>
@@ -13500,10 +13497,10 @@
         <v>1263</v>
       </c>
       <c r="I339" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1916</v>
       </c>
@@ -13526,10 +13523,10 @@
         <v>1295</v>
       </c>
       <c r="I340" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1916</v>
       </c>
@@ -13552,10 +13549,10 @@
         <v>1295</v>
       </c>
       <c r="I341" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1916</v>
       </c>
@@ -13575,13 +13572,13 @@
         <v>948</v>
       </c>
       <c r="H342" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I342" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1916</v>
       </c>
@@ -13601,13 +13598,13 @@
         <v>921</v>
       </c>
       <c r="H343" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I343" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1916</v>
       </c>
@@ -13633,10 +13630,10 @@
         <v>1311</v>
       </c>
       <c r="I344" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1916</v>
       </c>
@@ -13659,10 +13656,10 @@
         <v>1311</v>
       </c>
       <c r="I345" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1916</v>
       </c>
@@ -13685,10 +13682,10 @@
         <v>1311</v>
       </c>
       <c r="I346" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1916</v>
       </c>
@@ -13711,10 +13708,10 @@
         <v>1263</v>
       </c>
       <c r="I347" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1916</v>
       </c>
@@ -13737,10 +13734,10 @@
         <v>1312</v>
       </c>
       <c r="I348" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1916</v>
       </c>
@@ -13763,10 +13760,10 @@
         <v>1312</v>
       </c>
       <c r="I349" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1916</v>
       </c>
@@ -13789,10 +13786,10 @@
         <v>1313</v>
       </c>
       <c r="I350" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1916</v>
       </c>
@@ -13815,10 +13812,10 @@
         <v>1314</v>
       </c>
       <c r="I351" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1916</v>
       </c>
@@ -13841,10 +13838,10 @@
         <v>1314</v>
       </c>
       <c r="I352" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1916</v>
       </c>
@@ -13867,10 +13864,10 @@
         <v>1315</v>
       </c>
       <c r="I353" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1916</v>
       </c>
@@ -13893,10 +13890,10 @@
         <v>1316</v>
       </c>
       <c r="I354" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1916</v>
       </c>
@@ -13916,13 +13913,13 @@
         <v>1167</v>
       </c>
       <c r="H355" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I355" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1916</v>
       </c>
@@ -13945,10 +13942,10 @@
         <v>1317</v>
       </c>
       <c r="I356" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1916</v>
       </c>
@@ -13971,10 +13968,10 @@
         <v>1317</v>
       </c>
       <c r="I357" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1916</v>
       </c>
@@ -13997,10 +13994,10 @@
         <v>1317</v>
       </c>
       <c r="I358" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1916</v>
       </c>
@@ -14023,10 +14020,10 @@
         <v>1318</v>
       </c>
       <c r="I359" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1916</v>
       </c>
@@ -14049,10 +14046,10 @@
         <v>1318</v>
       </c>
       <c r="I360" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1916</v>
       </c>
@@ -14075,10 +14072,10 @@
         <v>1318</v>
       </c>
       <c r="I361" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1916</v>
       </c>
@@ -14101,10 +14098,10 @@
         <v>1319</v>
       </c>
       <c r="I362" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1916</v>
       </c>
@@ -14127,10 +14124,10 @@
         <v>1319</v>
       </c>
       <c r="I363" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1916</v>
       </c>
@@ -14156,10 +14153,10 @@
         <v>1320</v>
       </c>
       <c r="I364" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1916</v>
       </c>
@@ -14185,10 +14182,10 @@
         <v>1320</v>
       </c>
       <c r="I365" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1916</v>
       </c>
@@ -14214,10 +14211,10 @@
         <v>1320</v>
       </c>
       <c r="I366" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1916</v>
       </c>
@@ -14240,13 +14237,13 @@
         <v>1177</v>
       </c>
       <c r="H367" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I367" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1916</v>
       </c>
@@ -14266,13 +14263,13 @@
         <v>1178</v>
       </c>
       <c r="H368" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I368" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1916</v>
       </c>
@@ -14292,13 +14289,13 @@
         <v>1179</v>
       </c>
       <c r="H369" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I369" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1916</v>
       </c>
@@ -14318,13 +14315,13 @@
         <v>1179</v>
       </c>
       <c r="H370" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I370" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1916</v>
       </c>
@@ -14344,13 +14341,13 @@
         <v>990</v>
       </c>
       <c r="H371" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I371" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1916</v>
       </c>
@@ -14370,13 +14367,13 @@
         <v>1180</v>
       </c>
       <c r="H372" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I372" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1916</v>
       </c>
@@ -14399,10 +14396,10 @@
         <v>1321</v>
       </c>
       <c r="I373" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1916</v>
       </c>
@@ -14425,10 +14422,10 @@
         <v>1321</v>
       </c>
       <c r="I374" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1916</v>
       </c>
@@ -14451,10 +14448,10 @@
         <v>1322</v>
       </c>
       <c r="I375" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1916</v>
       </c>
@@ -14477,10 +14474,10 @@
         <v>1322</v>
       </c>
       <c r="I376" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1916</v>
       </c>
@@ -14503,10 +14500,10 @@
         <v>1322</v>
       </c>
       <c r="I377" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1916</v>
       </c>
@@ -14529,10 +14526,10 @@
         <v>1323</v>
       </c>
       <c r="I378" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1916</v>
       </c>
@@ -14555,10 +14552,10 @@
         <v>1323</v>
       </c>
       <c r="I379" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1916</v>
       </c>
@@ -14584,10 +14581,10 @@
         <v>1324</v>
       </c>
       <c r="I380" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1916</v>
       </c>
@@ -14610,10 +14607,10 @@
         <v>1324</v>
       </c>
       <c r="I381" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1916</v>
       </c>
@@ -14636,10 +14633,10 @@
         <v>1324</v>
       </c>
       <c r="I382" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1916</v>
       </c>
@@ -14662,10 +14659,10 @@
         <v>1324</v>
       </c>
       <c r="I383" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1916</v>
       </c>
@@ -14688,10 +14685,10 @@
         <v>1325</v>
       </c>
       <c r="I384" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1916</v>
       </c>
@@ -14714,10 +14711,10 @@
         <v>1325</v>
       </c>
       <c r="I385" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1916</v>
       </c>
@@ -14740,10 +14737,10 @@
         <v>1325</v>
       </c>
       <c r="I386" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1916</v>
       </c>
@@ -14766,10 +14763,10 @@
         <v>1325</v>
       </c>
       <c r="I387" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1916</v>
       </c>
@@ -14792,10 +14789,10 @@
         <v>1325</v>
       </c>
       <c r="I388" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1916</v>
       </c>
@@ -14818,10 +14815,10 @@
         <v>1325</v>
       </c>
       <c r="I389" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1916</v>
       </c>
@@ -14844,10 +14841,10 @@
         <v>1325</v>
       </c>
       <c r="I390" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1916</v>
       </c>
@@ -14870,10 +14867,10 @@
         <v>1325</v>
       </c>
       <c r="I391" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1916</v>
       </c>
@@ -14896,10 +14893,10 @@
         <v>1326</v>
       </c>
       <c r="I392" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1916</v>
       </c>
@@ -14922,10 +14919,10 @@
         <v>1326</v>
       </c>
       <c r="I393" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1916</v>
       </c>
@@ -14948,10 +14945,10 @@
         <v>1326</v>
       </c>
       <c r="I394" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1916</v>
       </c>
@@ -14974,10 +14971,10 @@
         <v>1327</v>
       </c>
       <c r="I395" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1916</v>
       </c>
@@ -15000,10 +14997,10 @@
         <v>1328</v>
       </c>
       <c r="I396" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1916</v>
       </c>
@@ -15026,10 +15023,10 @@
         <v>1329</v>
       </c>
       <c r="I397" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1916</v>
       </c>
@@ -15052,10 +15049,10 @@
         <v>1330</v>
       </c>
       <c r="I398" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1916</v>
       </c>
@@ -15078,10 +15075,10 @@
         <v>1330</v>
       </c>
       <c r="I399" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1916</v>
       </c>
@@ -15104,10 +15101,10 @@
         <v>1331</v>
       </c>
       <c r="I400" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1916</v>
       </c>
@@ -15133,10 +15130,10 @@
         <v>1332</v>
       </c>
       <c r="I401" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1916</v>
       </c>
@@ -15162,10 +15159,10 @@
         <v>1332</v>
       </c>
       <c r="I402" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1916</v>
       </c>
@@ -15191,10 +15188,10 @@
         <v>1332</v>
       </c>
       <c r="I403" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1916</v>
       </c>
@@ -15220,10 +15217,10 @@
         <v>1332</v>
       </c>
       <c r="I404" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1916</v>
       </c>
@@ -15249,10 +15246,10 @@
         <v>1333</v>
       </c>
       <c r="I405" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1916</v>
       </c>
@@ -15278,10 +15275,10 @@
         <v>1333</v>
       </c>
       <c r="I406" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1916</v>
       </c>
@@ -15307,10 +15304,10 @@
         <v>1333</v>
       </c>
       <c r="I407" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1916</v>
       </c>
@@ -15336,10 +15333,10 @@
         <v>1333</v>
       </c>
       <c r="I408" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1916</v>
       </c>
@@ -15365,10 +15362,10 @@
         <v>1333</v>
       </c>
       <c r="I409" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1916</v>
       </c>
@@ -15394,10 +15391,10 @@
         <v>1333</v>
       </c>
       <c r="I410" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1916</v>
       </c>
@@ -15420,10 +15417,10 @@
         <v>1334</v>
       </c>
       <c r="I411" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1916</v>
       </c>
@@ -15446,10 +15443,10 @@
         <v>1334</v>
       </c>
       <c r="I412" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1916</v>
       </c>
@@ -15472,10 +15469,10 @@
         <v>1241</v>
       </c>
       <c r="I413" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1916</v>
       </c>
@@ -15498,10 +15495,10 @@
         <v>1241</v>
       </c>
       <c r="I414" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1916</v>
       </c>
@@ -15524,10 +15521,10 @@
         <v>1241</v>
       </c>
       <c r="I415" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1916</v>
       </c>
@@ -15550,10 +15547,10 @@
         <v>1241</v>
       </c>
       <c r="I416" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1916</v>
       </c>
@@ -15576,10 +15573,10 @@
         <v>1241</v>
       </c>
       <c r="I417" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1916</v>
       </c>
@@ -15599,13 +15596,13 @@
         <v>924</v>
       </c>
       <c r="H418" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I418" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1916</v>
       </c>
@@ -15628,10 +15625,10 @@
         <v>1335</v>
       </c>
       <c r="I419" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1916</v>
       </c>
@@ -15651,13 +15648,13 @@
         <v>1203</v>
       </c>
       <c r="H420" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I420" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1916</v>
       </c>
@@ -15677,13 +15674,13 @@
         <v>1204</v>
       </c>
       <c r="H421" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I421" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1916</v>
       </c>
@@ -15703,13 +15700,13 @@
         <v>1205</v>
       </c>
       <c r="H422" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I422" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1916</v>
       </c>
@@ -15729,13 +15726,13 @@
         <v>1206</v>
       </c>
       <c r="H423" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I423" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>1916</v>
       </c>
@@ -15755,13 +15752,13 @@
         <v>1207</v>
       </c>
       <c r="H424" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I424" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1916</v>
       </c>
@@ -15781,13 +15778,13 @@
         <v>1208</v>
       </c>
       <c r="H425" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I425" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1916</v>
       </c>
@@ -15810,10 +15807,10 @@
         <v>1336</v>
       </c>
       <c r="I426" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>1916</v>
       </c>
@@ -15836,10 +15833,10 @@
         <v>1336</v>
       </c>
       <c r="I427" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1916</v>
       </c>
@@ -15862,10 +15859,10 @@
         <v>1336</v>
       </c>
       <c r="I428" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>1916</v>
       </c>
@@ -15888,10 +15885,10 @@
         <v>1336</v>
       </c>
       <c r="I429" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1916</v>
       </c>
@@ -15914,10 +15911,10 @@
         <v>1336</v>
       </c>
       <c r="I430" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>1916</v>
       </c>
@@ -15940,10 +15937,10 @@
         <v>1337</v>
       </c>
       <c r="I431" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1916</v>
       </c>
@@ -15966,10 +15963,10 @@
         <v>1338</v>
       </c>
       <c r="I432" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1916</v>
       </c>
@@ -15992,10 +15989,10 @@
         <v>1338</v>
       </c>
       <c r="I433" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>1916</v>
       </c>
@@ -16018,10 +16015,10 @@
         <v>1339</v>
       </c>
       <c r="I434" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>1916</v>
       </c>
@@ -16044,10 +16041,10 @@
         <v>1340</v>
       </c>
       <c r="I435" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>1916</v>
       </c>
@@ -16073,13 +16070,13 @@
         <v>1341</v>
       </c>
       <c r="I436" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J436" t="s">
         <v>1391</v>
       </c>
-      <c r="J436" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>1916</v>
       </c>
@@ -16102,13 +16099,13 @@
         <v>1341</v>
       </c>
       <c r="I437" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J437" t="s">
         <v>1391</v>
       </c>
-      <c r="J437" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>1916</v>
       </c>
@@ -16131,13 +16128,13 @@
         <v>1341</v>
       </c>
       <c r="I438" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J438" t="s">
         <v>1391</v>
       </c>
-      <c r="J438" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>1916</v>
       </c>
@@ -16160,10 +16157,10 @@
         <v>1342</v>
       </c>
       <c r="I439" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>1916</v>
       </c>
@@ -16186,10 +16183,10 @@
         <v>1342</v>
       </c>
       <c r="I440" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>1916</v>
       </c>
@@ -16212,10 +16209,10 @@
         <v>1342</v>
       </c>
       <c r="I441" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>1916</v>
       </c>
@@ -16238,10 +16235,10 @@
         <v>1343</v>
       </c>
       <c r="I442" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>1916</v>
       </c>
@@ -16264,10 +16261,10 @@
         <v>1343</v>
       </c>
       <c r="I443" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>1916</v>
       </c>
@@ -16290,10 +16287,10 @@
         <v>1344</v>
       </c>
       <c r="I444" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>1916</v>
       </c>
@@ -16316,10 +16313,10 @@
         <v>1345</v>
       </c>
       <c r="I445" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>1916</v>
       </c>
@@ -16342,10 +16339,10 @@
         <v>1345</v>
       </c>
       <c r="I446" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>1916</v>
       </c>
@@ -16368,10 +16365,10 @@
         <v>1346</v>
       </c>
       <c r="I447" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>1916</v>
       </c>
@@ -16394,10 +16391,10 @@
         <v>1346</v>
       </c>
       <c r="I448" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>1916</v>
       </c>
@@ -16420,10 +16417,10 @@
         <v>1347</v>
       </c>
       <c r="I449" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>1916</v>
       </c>
@@ -16446,10 +16443,10 @@
         <v>1347</v>
       </c>
       <c r="I450" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>1916</v>
       </c>
@@ -16472,10 +16469,10 @@
         <v>1347</v>
       </c>
       <c r="I451" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>1916</v>
       </c>
@@ -16498,10 +16495,10 @@
         <v>1347</v>
       </c>
       <c r="I452" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>1916</v>
       </c>
@@ -16524,10 +16521,10 @@
         <v>1347</v>
       </c>
       <c r="I453" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>1916</v>
       </c>
@@ -16553,10 +16550,10 @@
         <v>1348</v>
       </c>
       <c r="I454" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>1916</v>
       </c>
@@ -16579,10 +16576,10 @@
         <v>1349</v>
       </c>
       <c r="I455" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>1916</v>
       </c>
@@ -16605,7 +16602,7 @@
         <v>1350</v>
       </c>
       <c r="I456" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1916_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1916_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF28D9C-A6D3-4FDC-8251-47A4A7D5DCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B49706-3434-4E9E-B178-52778EF4EA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="1408">
   <si>
     <t>Sommer</t>
   </si>
@@ -1645,9 +1645,6 @@
     <t>Repetitorium der Volkswirtschaftspolitik</t>
   </si>
   <si>
-    <t>Vbnngen aus den Gebieten der genossenschaftlichen. Theorie und Doktrinen</t>
-  </si>
-  <si>
     <t>Handelswissenschaftliche Übungen</t>
   </si>
   <si>
@@ -3712,9 +3709,6 @@
     <t>reichel_hf</t>
   </si>
   <si>
-    <t>steiner_h</t>
-  </si>
-  <si>
     <t>cohn_g</t>
   </si>
   <si>
@@ -3790,9 +3784,6 @@
     <t>steiger_o</t>
   </si>
   <si>
-    <t>roth_o</t>
-  </si>
-  <si>
     <t>oswald_a</t>
   </si>
   <si>
@@ -4051,9 +4042,6 @@
     <t>strohl_j</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>tschulok_s</t>
   </si>
   <si>
@@ -4069,15 +4057,9 @@
     <t>brandenberger_c</t>
   </si>
   <si>
-    <t>egli_k</t>
-  </si>
-  <si>
     <t>bosshard_h</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
     <t>meyer_a</t>
   </si>
   <si>
@@ -4099,9 +4081,6 @@
     <t>sauerbruch_f</t>
   </si>
   <si>
-    <t>brun_r</t>
-  </si>
-  <si>
     <t>wyss_o</t>
   </si>
   <si>
@@ -4114,9 +4093,6 @@
     <t>veraguth_o</t>
   </si>
   <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>gysi_a</t>
   </si>
   <si>
@@ -4168,15 +4144,9 @@
     <t>fick_age</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>tieche_m</t>
   </si>
   <si>
-    <t>vonmonakow_p</t>
-  </si>
-  <si>
     <t>hess_wr</t>
   </si>
   <si>
@@ -4241,6 +4211,39 @@
   </si>
   <si>
     <t>nager_fr</t>
+  </si>
+  <si>
+    <t>brun_h</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>Übungen aus den Gebieten der genossenschaftlichen. Theorie und Doktrinen</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>egli_k2</t>
+  </si>
+  <si>
+    <t>steiner_h2</t>
+  </si>
+  <si>
+    <t>roth_o2</t>
+  </si>
+  <si>
+    <t>schinz_m</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -4282,11 +4285,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4590,11 +4596,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="H184" sqref="H184"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="H176" sqref="H176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
@@ -4619,13 +4625,13 @@
         <v>465</v>
       </c>
       <c r="G1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1" t="s">
-        <v>1351</v>
+        <v>1401</v>
       </c>
       <c r="I1" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4645,16 +4651,16 @@
         <v>466</v>
       </c>
       <c r="G2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H2" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="I2" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
       <c r="J2" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4674,13 +4680,13 @@
         <v>467</v>
       </c>
       <c r="G3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I3" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4700,13 +4706,13 @@
         <v>468</v>
       </c>
       <c r="G4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H4" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I4" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4726,13 +4732,13 @@
         <v>469</v>
       </c>
       <c r="G5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H5" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I5" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4752,16 +4758,16 @@
         <v>470</v>
       </c>
       <c r="G6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H6" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="I6" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
       <c r="J6" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4781,13 +4787,13 @@
         <v>471</v>
       </c>
       <c r="G7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H7" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I7" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4807,13 +4813,13 @@
         <v>472</v>
       </c>
       <c r="G8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I8" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4833,13 +4839,13 @@
         <v>473</v>
       </c>
       <c r="G9" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H9" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="I9" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4859,13 +4865,13 @@
         <v>474</v>
       </c>
       <c r="G10" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H10" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I10" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4885,13 +4891,13 @@
         <v>475</v>
       </c>
       <c r="G11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H11" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I11" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4911,13 +4917,13 @@
         <v>476</v>
       </c>
       <c r="G12" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H12" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="I12" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4937,13 +4943,13 @@
         <v>477</v>
       </c>
       <c r="G13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H13" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I13" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4963,13 +4969,13 @@
         <v>478</v>
       </c>
       <c r="G14" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H14" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I14" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4989,13 +4995,13 @@
         <v>479</v>
       </c>
       <c r="G15" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H15" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I15" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -5015,13 +5021,13 @@
         <v>480</v>
       </c>
       <c r="G16" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H16" t="s">
-        <v>1351</v>
+        <v>1401</v>
       </c>
       <c r="I16" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -5041,13 +5047,13 @@
         <v>481</v>
       </c>
       <c r="G17" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H17" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I17" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5067,13 +5073,13 @@
         <v>482</v>
       </c>
       <c r="G18" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H18" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I18" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5093,13 +5099,13 @@
         <v>483</v>
       </c>
       <c r="G19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H19" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="I19" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5119,13 +5125,13 @@
         <v>484</v>
       </c>
       <c r="G20" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H20" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I20" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5145,13 +5151,13 @@
         <v>485</v>
       </c>
       <c r="G21" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H21" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I21" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5171,13 +5177,13 @@
         <v>486</v>
       </c>
       <c r="G22" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I22" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5197,13 +5203,13 @@
         <v>487</v>
       </c>
       <c r="G23" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H23" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="I23" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5223,13 +5229,13 @@
         <v>488</v>
       </c>
       <c r="G24" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H24" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I24" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5249,13 +5255,13 @@
         <v>489</v>
       </c>
       <c r="G25" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H25" t="s">
-        <v>1351</v>
+        <v>1401</v>
       </c>
       <c r="I25" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5275,13 +5281,13 @@
         <v>490</v>
       </c>
       <c r="G26" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H26" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="I26" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5301,13 +5307,13 @@
         <v>491</v>
       </c>
       <c r="G27" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H27" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I27" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5327,13 +5333,13 @@
         <v>492</v>
       </c>
       <c r="G28" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H28" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I28" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5353,16 +5359,16 @@
         <v>493</v>
       </c>
       <c r="G29" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I29" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="J29" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5382,13 +5388,13 @@
         <v>494</v>
       </c>
       <c r="G30" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H30" t="s">
-        <v>1230</v>
+        <v>1403</v>
       </c>
       <c r="I30" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5408,13 +5414,13 @@
         <v>495</v>
       </c>
       <c r="G31" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H31" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I31" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5434,13 +5440,13 @@
         <v>496</v>
       </c>
       <c r="G32" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H32" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="I32" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5460,13 +5466,13 @@
         <v>497</v>
       </c>
       <c r="G33" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H33" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="I33" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5486,13 +5492,13 @@
         <v>498</v>
       </c>
       <c r="G34" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H34" t="s">
-        <v>1405</v>
+        <v>1395</v>
       </c>
       <c r="I34" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5512,13 +5518,13 @@
         <v>499</v>
       </c>
       <c r="G35" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H35" t="s">
-        <v>1405</v>
+        <v>1395</v>
       </c>
       <c r="I35" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5538,13 +5544,13 @@
         <v>500</v>
       </c>
       <c r="G36" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H36" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="I36" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5564,13 +5570,13 @@
         <v>501</v>
       </c>
       <c r="G37" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H37" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="I37" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5590,13 +5596,13 @@
         <v>502</v>
       </c>
       <c r="G38" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H38" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="I38" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5616,13 +5622,13 @@
         <v>503</v>
       </c>
       <c r="G39" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H39" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="I39" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5642,13 +5648,13 @@
         <v>504</v>
       </c>
       <c r="G40" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H40" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="I40" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5668,13 +5674,13 @@
         <v>505</v>
       </c>
       <c r="G41" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H41" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="I41" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5694,13 +5700,13 @@
         <v>506</v>
       </c>
       <c r="G42" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H42" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="I42" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5720,13 +5726,13 @@
         <v>507</v>
       </c>
       <c r="G43" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H43" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="I43" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -5746,13 +5752,13 @@
         <v>508</v>
       </c>
       <c r="G44" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H44" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="I44" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5772,13 +5778,13 @@
         <v>509</v>
       </c>
       <c r="G45" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H45" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="I45" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -5798,13 +5804,13 @@
         <v>510</v>
       </c>
       <c r="G46" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H46" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="I46" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5824,13 +5830,13 @@
         <v>511</v>
       </c>
       <c r="G47" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H47" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="I47" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -5850,13 +5856,13 @@
         <v>512</v>
       </c>
       <c r="G48" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H48" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="I48" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5876,13 +5882,13 @@
         <v>513</v>
       </c>
       <c r="G49" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H49" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="I49" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5902,13 +5908,13 @@
         <v>514</v>
       </c>
       <c r="G50" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H50" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="I50" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5928,13 +5934,13 @@
         <v>515</v>
       </c>
       <c r="G51" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H51" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="I51" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5954,13 +5960,13 @@
         <v>516</v>
       </c>
       <c r="G52" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H52" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="I52" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5980,13 +5986,13 @@
         <v>517</v>
       </c>
       <c r="G53" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H53" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="I53" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -6006,13 +6012,13 @@
         <v>518</v>
       </c>
       <c r="G54" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H54" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="I54" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -6032,13 +6038,13 @@
         <v>519</v>
       </c>
       <c r="G55" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H55" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I55" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -6058,13 +6064,13 @@
         <v>520</v>
       </c>
       <c r="G56" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H56" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="I56" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -6084,13 +6090,13 @@
         <v>521</v>
       </c>
       <c r="G57" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H57" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I57" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -6110,13 +6116,13 @@
         <v>522</v>
       </c>
       <c r="G58" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H58" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="I58" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -6136,13 +6142,13 @@
         <v>523</v>
       </c>
       <c r="G59" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H59" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="I59" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -6162,13 +6168,13 @@
         <v>524</v>
       </c>
       <c r="G60" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H60" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="I60" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -6188,13 +6194,13 @@
         <v>525</v>
       </c>
       <c r="G61" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H61" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I61" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -6214,13 +6220,13 @@
         <v>526</v>
       </c>
       <c r="G62" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H62" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I62" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -6240,13 +6246,13 @@
         <v>527</v>
       </c>
       <c r="G63" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H63" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I63" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -6266,16 +6272,16 @@
         <v>528</v>
       </c>
       <c r="G64" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H64" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I64" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="J64" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -6295,13 +6301,13 @@
         <v>529</v>
       </c>
       <c r="G65" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H65" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I65" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -6321,13 +6327,13 @@
         <v>530</v>
       </c>
       <c r="G66" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H66" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="I66" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -6347,13 +6353,13 @@
         <v>531</v>
       </c>
       <c r="G67" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H67" t="s">
-        <v>1395</v>
+        <v>1385</v>
       </c>
       <c r="I67" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -6373,13 +6379,13 @@
         <v>532</v>
       </c>
       <c r="G68" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H68" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="I68" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -6399,13 +6405,13 @@
         <v>533</v>
       </c>
       <c r="G69" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H69" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="I69" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -6425,13 +6431,13 @@
         <v>534</v>
       </c>
       <c r="G70" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H70" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="I70" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -6451,13 +6457,13 @@
         <v>535</v>
       </c>
       <c r="G71" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H71" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="I71" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -6477,13 +6483,13 @@
         <v>536</v>
       </c>
       <c r="G72" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H72" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="I72" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -6503,13 +6509,13 @@
         <v>537</v>
       </c>
       <c r="G73" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H73" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="I73" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -6529,13 +6535,13 @@
         <v>538</v>
       </c>
       <c r="G74" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H74" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="I74" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -6555,13 +6561,13 @@
         <v>539</v>
       </c>
       <c r="G75" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H75" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I75" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -6581,13 +6587,13 @@
         <v>540</v>
       </c>
       <c r="G76" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H76" t="s">
-        <v>1242</v>
+        <v>1384</v>
       </c>
       <c r="I76" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -6604,16 +6610,16 @@
         <v>460</v>
       </c>
       <c r="F77" t="s">
-        <v>541</v>
+        <v>1399</v>
       </c>
       <c r="G77" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H77" t="s">
-        <v>1242</v>
+        <v>1384</v>
       </c>
       <c r="I77" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -6630,16 +6636,16 @@
         <v>460</v>
       </c>
       <c r="F78" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G78" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H78" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="I78" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -6656,16 +6662,16 @@
         <v>460</v>
       </c>
       <c r="F79" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G79" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H79" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I79" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -6682,16 +6688,16 @@
         <v>460</v>
       </c>
       <c r="F80" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G80" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H80" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I80" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -6708,16 +6714,16 @@
         <v>460</v>
       </c>
       <c r="F81" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G81" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H81" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I81" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -6734,16 +6740,16 @@
         <v>460</v>
       </c>
       <c r="F82" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G82" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H82" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="I82" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -6763,16 +6769,16 @@
         <v>461</v>
       </c>
       <c r="F83" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G83" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H83" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I83" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -6792,16 +6798,16 @@
         <v>461</v>
       </c>
       <c r="F84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G84" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H84" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I84" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -6818,16 +6824,16 @@
         <v>461</v>
       </c>
       <c r="F85" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G85" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H85" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I85" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -6844,16 +6850,16 @@
         <v>461</v>
       </c>
       <c r="F86" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G86" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H86" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I86" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -6870,16 +6876,16 @@
         <v>461</v>
       </c>
       <c r="F87" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G87" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H87" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I87" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -6899,16 +6905,16 @@
         <v>461</v>
       </c>
       <c r="F88" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G88" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H88" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I88" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -6928,16 +6934,16 @@
         <v>461</v>
       </c>
       <c r="F89" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G89" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H89" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I89" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -6954,16 +6960,16 @@
         <v>461</v>
       </c>
       <c r="F90" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G90" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H90" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I90" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -6980,16 +6986,16 @@
         <v>461</v>
       </c>
       <c r="F91" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G91" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H91" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I91" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -7006,16 +7012,16 @@
         <v>461</v>
       </c>
       <c r="F92" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G92" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H92" t="s">
-        <v>1384</v>
+        <v>1400</v>
       </c>
       <c r="I92" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -7032,16 +7038,16 @@
         <v>461</v>
       </c>
       <c r="F93" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G93" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H93" t="s">
-        <v>1384</v>
+        <v>1400</v>
       </c>
       <c r="I93" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -7058,16 +7064,16 @@
         <v>461</v>
       </c>
       <c r="F94" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G94" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H94" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I94" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -7084,16 +7090,16 @@
         <v>461</v>
       </c>
       <c r="F95" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G95" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H95" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I95" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -7110,16 +7116,16 @@
         <v>461</v>
       </c>
       <c r="F96" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G96" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H96" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I96" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -7136,16 +7142,16 @@
         <v>461</v>
       </c>
       <c r="F97" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G97" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H97" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I97" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -7162,16 +7168,16 @@
         <v>461</v>
       </c>
       <c r="F98" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G98" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H98" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I98" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -7188,16 +7194,16 @@
         <v>461</v>
       </c>
       <c r="F99" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G99" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H99" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I99" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -7214,16 +7220,16 @@
         <v>461</v>
       </c>
       <c r="F100" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G100" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H100" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I100" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -7240,16 +7246,16 @@
         <v>461</v>
       </c>
       <c r="F101" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G101" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H101" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="I101" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -7266,16 +7272,16 @@
         <v>461</v>
       </c>
       <c r="F102" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G102" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H102" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I102" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -7292,16 +7298,16 @@
         <v>461</v>
       </c>
       <c r="F103" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G103" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H103" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I103" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -7318,16 +7324,16 @@
         <v>461</v>
       </c>
       <c r="F104" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G104" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H104" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I104" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -7344,16 +7350,16 @@
         <v>461</v>
       </c>
       <c r="F105" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G105" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H105" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I105" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -7370,16 +7376,16 @@
         <v>461</v>
       </c>
       <c r="F106" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G106" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H106" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I106" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -7396,16 +7402,16 @@
         <v>461</v>
       </c>
       <c r="F107" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G107" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H107" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I107" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -7422,16 +7428,16 @@
         <v>461</v>
       </c>
       <c r="F108" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G108" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H108" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="I108" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -7448,22 +7454,22 @@
         <v>461</v>
       </c>
       <c r="F109" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G109" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H109" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="I109" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="K109" t="s">
-        <v>1396</v>
+        <v>1386</v>
       </c>
       <c r="L109" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -7480,16 +7486,16 @@
         <v>461</v>
       </c>
       <c r="F110" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G110" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H110" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="I110" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -7506,16 +7512,16 @@
         <v>461</v>
       </c>
       <c r="F111" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G111" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H111" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I111" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -7532,16 +7538,16 @@
         <v>461</v>
       </c>
       <c r="F112" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G112" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H112" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I112" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -7558,16 +7564,16 @@
         <v>461</v>
       </c>
       <c r="F113" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G113" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H113" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I113" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -7584,16 +7590,16 @@
         <v>461</v>
       </c>
       <c r="F114" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G114" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H114" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I114" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -7610,16 +7616,16 @@
         <v>461</v>
       </c>
       <c r="F115" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G115" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H115" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I115" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -7636,16 +7642,16 @@
         <v>461</v>
       </c>
       <c r="F116" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G116" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H116" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I116" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -7662,16 +7668,16 @@
         <v>461</v>
       </c>
       <c r="F117" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G117" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H117" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I117" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -7688,16 +7694,16 @@
         <v>461</v>
       </c>
       <c r="F118" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G118" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H118" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I118" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -7714,16 +7720,16 @@
         <v>461</v>
       </c>
       <c r="F119" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G119" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H119" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I119" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -7740,16 +7746,16 @@
         <v>461</v>
       </c>
       <c r="F120" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G120" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H120" t="s">
-        <v>1256</v>
+        <v>1404</v>
       </c>
       <c r="I120" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -7766,16 +7772,16 @@
         <v>461</v>
       </c>
       <c r="F121" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G121" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H121" t="s">
-        <v>1256</v>
+        <v>1404</v>
       </c>
       <c r="I121" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -7792,16 +7798,16 @@
         <v>461</v>
       </c>
       <c r="F122" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G122" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H122" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="I122" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -7818,16 +7824,16 @@
         <v>461</v>
       </c>
       <c r="F123" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G123" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H123" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="I123" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -7844,16 +7850,16 @@
         <v>461</v>
       </c>
       <c r="F124" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G124" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H124" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="I124" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -7870,16 +7876,16 @@
         <v>461</v>
       </c>
       <c r="F125" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G125" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H125" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="I125" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -7896,16 +7902,16 @@
         <v>461</v>
       </c>
       <c r="F126" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G126" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H126" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="I126" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -7922,16 +7928,16 @@
         <v>461</v>
       </c>
       <c r="F127" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G127" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H127" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="I127" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -7948,16 +7954,16 @@
         <v>461</v>
       </c>
       <c r="F128" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G128" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H128" t="s">
-        <v>1384</v>
+        <v>1400</v>
       </c>
       <c r="I128" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -7974,16 +7980,16 @@
         <v>461</v>
       </c>
       <c r="F129" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G129" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H129" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="I129" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -8000,16 +8006,16 @@
         <v>461</v>
       </c>
       <c r="F130" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G130" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H130" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="I130" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -8026,16 +8032,16 @@
         <v>461</v>
       </c>
       <c r="F131" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G131" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H131" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="I131" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -8052,16 +8058,16 @@
         <v>461</v>
       </c>
       <c r="F132" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G132" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H132" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
       <c r="I132" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -8078,16 +8084,16 @@
         <v>461</v>
       </c>
       <c r="F133" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G133" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H133" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="I133" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -8104,16 +8110,16 @@
         <v>461</v>
       </c>
       <c r="F134" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G134" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H134" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="I134" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -8130,16 +8136,16 @@
         <v>461</v>
       </c>
       <c r="F135" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G135" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H135" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="I135" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8156,16 +8162,16 @@
         <v>461</v>
       </c>
       <c r="F136" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G136" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H136" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="I136" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8182,16 +8188,16 @@
         <v>461</v>
       </c>
       <c r="F137" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H137" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="I137" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8208,16 +8214,16 @@
         <v>461</v>
       </c>
       <c r="F138" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G138" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H138" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="I138" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8234,16 +8240,16 @@
         <v>461</v>
       </c>
       <c r="F139" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G139" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H139" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="I139" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8260,16 +8266,16 @@
         <v>461</v>
       </c>
       <c r="F140" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G140" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H140" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="I140" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8286,16 +8292,16 @@
         <v>461</v>
       </c>
       <c r="F141" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G141" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H141" t="s">
-        <v>1359</v>
+        <v>1397</v>
       </c>
       <c r="I141" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8312,16 +8318,16 @@
         <v>461</v>
       </c>
       <c r="F142" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G142" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H142" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="I142" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8338,16 +8344,16 @@
         <v>461</v>
       </c>
       <c r="F143" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G143" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H143" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="I143" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8364,16 +8370,16 @@
         <v>461</v>
       </c>
       <c r="F144" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G144" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H144" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="I144" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -8390,16 +8396,16 @@
         <v>461</v>
       </c>
       <c r="F145" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G145" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H145" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="I145" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -8416,16 +8422,16 @@
         <v>461</v>
       </c>
       <c r="F146" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G146" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H146" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="I146" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -8442,16 +8448,16 @@
         <v>461</v>
       </c>
       <c r="F147" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G147" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H147" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="I147" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -8468,19 +8474,19 @@
         <v>461</v>
       </c>
       <c r="F148" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G148" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H148" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="I148" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="J148" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -8497,19 +8503,19 @@
         <v>461</v>
       </c>
       <c r="F149" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G149" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H149" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="I149" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="J149" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -8526,16 +8532,16 @@
         <v>461</v>
       </c>
       <c r="F150" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G150" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H150" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="I150" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -8552,16 +8558,16 @@
         <v>461</v>
       </c>
       <c r="F151" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G151" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H151" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="I151" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -8578,22 +8584,22 @@
         <v>461</v>
       </c>
       <c r="F152" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G152" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H152" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="I152" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="K152" t="s">
-        <v>1397</v>
+        <v>1387</v>
       </c>
       <c r="L152" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -8610,16 +8616,16 @@
         <v>461</v>
       </c>
       <c r="F153" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G153" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H153" t="s">
-        <v>1382</v>
+        <v>1035</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>1398</v>
       </c>
       <c r="I153" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -8636,16 +8642,16 @@
         <v>461</v>
       </c>
       <c r="F154" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G154" t="s">
-        <v>1017</v>
-      </c>
-      <c r="H154" t="s">
-        <v>1382</v>
+        <v>1016</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>1398</v>
       </c>
       <c r="I154" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -8662,16 +8668,16 @@
         <v>461</v>
       </c>
       <c r="F155" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G155" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H155" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="I155" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -8688,16 +8694,16 @@
         <v>461</v>
       </c>
       <c r="F156" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G156" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H156" t="s">
-        <v>1397</v>
+        <v>1387</v>
       </c>
       <c r="I156" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -8714,16 +8720,16 @@
         <v>461</v>
       </c>
       <c r="F157" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G157" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H157" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="I157" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -8740,16 +8746,16 @@
         <v>461</v>
       </c>
       <c r="F158" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G158" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H158" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="I158" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -8766,16 +8772,16 @@
         <v>461</v>
       </c>
       <c r="F159" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G159" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H159" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="I159" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -8792,16 +8798,16 @@
         <v>461</v>
       </c>
       <c r="F160" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G160" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H160" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="I160" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -8818,16 +8824,16 @@
         <v>461</v>
       </c>
       <c r="F161" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G161" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H161" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="I161" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -8844,16 +8850,16 @@
         <v>461</v>
       </c>
       <c r="F162" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G162" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H162" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="I162" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -8870,16 +8876,16 @@
         <v>461</v>
       </c>
       <c r="F163" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G163" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H163" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="I163" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -8896,16 +8902,16 @@
         <v>461</v>
       </c>
       <c r="F164" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G164" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H164" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="I164" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -8922,16 +8928,16 @@
         <v>461</v>
       </c>
       <c r="F165" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G165" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H165" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="I165" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -8948,16 +8954,16 @@
         <v>461</v>
       </c>
       <c r="F166" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G166" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H166" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="I166" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -8974,16 +8980,16 @@
         <v>461</v>
       </c>
       <c r="F167" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G167" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H167" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="I167" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -9000,16 +9006,16 @@
         <v>461</v>
       </c>
       <c r="F168" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G168" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H168" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="I168" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -9026,16 +9032,16 @@
         <v>461</v>
       </c>
       <c r="F169" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G169" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H169" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="I169" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -9052,16 +9058,16 @@
         <v>461</v>
       </c>
       <c r="F170" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G170" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H170" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="I170" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -9078,16 +9084,16 @@
         <v>461</v>
       </c>
       <c r="F171" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G171" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H171" t="s">
-        <v>1364</v>
+        <v>1407</v>
       </c>
       <c r="I171" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -9104,16 +9110,16 @@
         <v>461</v>
       </c>
       <c r="F172" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G172" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H172" t="s">
-        <v>1364</v>
+        <v>1407</v>
       </c>
       <c r="I172" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -9130,22 +9136,22 @@
         <v>461</v>
       </c>
       <c r="F173" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G173" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H173" t="s">
-        <v>1364</v>
+        <v>1407</v>
       </c>
       <c r="I173" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="K173" t="s">
+        <v>1372</v>
+      </c>
+      <c r="L173" t="s">
         <v>1380</v>
-      </c>
-      <c r="L173" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -9162,16 +9168,16 @@
         <v>461</v>
       </c>
       <c r="F174" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G174" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H174" t="s">
-        <v>1364</v>
+        <v>1407</v>
       </c>
       <c r="I174" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -9188,16 +9194,16 @@
         <v>461</v>
       </c>
       <c r="F175" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G175" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H175" t="s">
-        <v>1364</v>
+        <v>1407</v>
       </c>
       <c r="I175" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -9214,16 +9220,16 @@
         <v>461</v>
       </c>
       <c r="F176" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G176" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H176" t="s">
+        <v>1372</v>
+      </c>
+      <c r="I176" t="s">
         <v>1380</v>
-      </c>
-      <c r="I176" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -9240,16 +9246,16 @@
         <v>461</v>
       </c>
       <c r="F177" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G177" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H177" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="I177" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -9266,16 +9272,16 @@
         <v>461</v>
       </c>
       <c r="F178" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G178" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H178" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="I178" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -9292,16 +9298,16 @@
         <v>461</v>
       </c>
       <c r="F179" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G179" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H179" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="I179" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -9318,16 +9324,16 @@
         <v>461</v>
       </c>
       <c r="F180" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G180" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H180" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="I180" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -9344,16 +9350,16 @@
         <v>461</v>
       </c>
       <c r="F181" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G181" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H181" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="I181" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -9370,16 +9376,16 @@
         <v>461</v>
       </c>
       <c r="F182" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G182" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H182" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="I182" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -9396,16 +9402,16 @@
         <v>461</v>
       </c>
       <c r="F183" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G183" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H183" t="s">
-        <v>1406</v>
+        <v>1396</v>
       </c>
       <c r="I183" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -9422,16 +9428,16 @@
         <v>461</v>
       </c>
       <c r="F184" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G184" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H184" t="s">
-        <v>1406</v>
+        <v>1396</v>
       </c>
       <c r="I184" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -9448,16 +9454,16 @@
         <v>461</v>
       </c>
       <c r="F185" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G185" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H185" t="s">
-        <v>1406</v>
+        <v>1396</v>
       </c>
       <c r="I185" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -9474,16 +9480,16 @@
         <v>461</v>
       </c>
       <c r="F186" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G186" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H186" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="I186" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -9500,16 +9506,16 @@
         <v>461</v>
       </c>
       <c r="F187" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G187" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H187" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="I187" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -9526,16 +9532,16 @@
         <v>461</v>
       </c>
       <c r="F188" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G188" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H188" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="I188" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -9552,16 +9558,16 @@
         <v>461</v>
       </c>
       <c r="F189" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G189" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H189" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="I189" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -9578,16 +9584,16 @@
         <v>461</v>
       </c>
       <c r="F190" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G190" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H190" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="I190" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -9604,13 +9610,13 @@
         <v>461</v>
       </c>
       <c r="F191" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G191" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H191" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -9627,13 +9633,13 @@
         <v>461</v>
       </c>
       <c r="F192" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G192" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H192" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -9650,13 +9656,13 @@
         <v>461</v>
       </c>
       <c r="F193" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G193" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H193" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -9673,13 +9679,13 @@
         <v>461</v>
       </c>
       <c r="F194" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G194" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H194" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -9696,16 +9702,16 @@
         <v>461</v>
       </c>
       <c r="F195" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G195" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H195" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
       <c r="I195" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -9722,16 +9728,16 @@
         <v>461</v>
       </c>
       <c r="F196" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G196" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H196" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
       <c r="I196" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -9748,16 +9754,16 @@
         <v>461</v>
       </c>
       <c r="F197" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G197" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H197" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
       <c r="I197" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -9774,16 +9780,16 @@
         <v>461</v>
       </c>
       <c r="F198" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G198" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H198" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
       <c r="I198" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -9800,16 +9806,16 @@
         <v>462</v>
       </c>
       <c r="F199" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G199" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H199" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I199" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -9826,16 +9832,16 @@
         <v>462</v>
       </c>
       <c r="F200" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G200" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H200" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I200" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -9852,16 +9858,16 @@
         <v>462</v>
       </c>
       <c r="F201" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G201" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H201" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I201" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -9878,16 +9884,16 @@
         <v>462</v>
       </c>
       <c r="F202" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G202" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H202" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I202" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -9904,16 +9910,16 @@
         <v>462</v>
       </c>
       <c r="F203" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G203" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H203" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I203" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -9930,16 +9936,16 @@
         <v>462</v>
       </c>
       <c r="F204" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G204" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H204" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I204" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -9956,16 +9962,16 @@
         <v>462</v>
       </c>
       <c r="F205" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G205" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H205" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="I205" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -9982,16 +9988,16 @@
         <v>462</v>
       </c>
       <c r="F206" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G206" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H206" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="I206" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -10008,16 +10014,16 @@
         <v>462</v>
       </c>
       <c r="F207" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G207" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H207" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="I207" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -10034,16 +10040,16 @@
         <v>462</v>
       </c>
       <c r="F208" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G208" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H208" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="I208" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -10060,16 +10066,16 @@
         <v>462</v>
       </c>
       <c r="F209" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G209" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H209" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="I209" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -10086,16 +10092,16 @@
         <v>462</v>
       </c>
       <c r="F210" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G210" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H210" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="I210" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -10112,16 +10118,16 @@
         <v>462</v>
       </c>
       <c r="F211" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G211" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H211" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="I211" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -10138,16 +10144,16 @@
         <v>462</v>
       </c>
       <c r="F212" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G212" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H212" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="I212" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -10164,16 +10170,16 @@
         <v>462</v>
       </c>
       <c r="F213" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G213" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H213" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="I213" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -10190,19 +10196,19 @@
         <v>462</v>
       </c>
       <c r="F214" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G214" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H214" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="I214" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="J214" t="s">
-        <v>1403</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -10219,19 +10225,19 @@
         <v>462</v>
       </c>
       <c r="F215" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G215" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H215" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="I215" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="J215" t="s">
-        <v>1403</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -10248,19 +10254,19 @@
         <v>462</v>
       </c>
       <c r="F216" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G216" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H216" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="I216" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="J216" t="s">
-        <v>1403</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -10277,16 +10283,16 @@
         <v>462</v>
       </c>
       <c r="F217" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G217" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H217" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="I217" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -10303,16 +10309,16 @@
         <v>462</v>
       </c>
       <c r="F218" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G218" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H218" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="I218" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -10329,16 +10335,16 @@
         <v>462</v>
       </c>
       <c r="F219" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G219" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H219" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="I219" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -10355,16 +10361,16 @@
         <v>462</v>
       </c>
       <c r="F220" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G220" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H220" t="s">
-        <v>1366</v>
+        <v>1358</v>
       </c>
       <c r="I220" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -10381,16 +10387,16 @@
         <v>462</v>
       </c>
       <c r="F221" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G221" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H221" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="I221" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -10407,16 +10413,16 @@
         <v>462</v>
       </c>
       <c r="F222" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G222" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H222" t="s">
-        <v>1366</v>
+        <v>1358</v>
       </c>
       <c r="I222" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -10433,16 +10439,16 @@
         <v>462</v>
       </c>
       <c r="F223" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G223" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H223" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="I223" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -10459,19 +10465,19 @@
         <v>462</v>
       </c>
       <c r="F224" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G224" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H224" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="I224" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="J224" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -10488,19 +10494,19 @@
         <v>462</v>
       </c>
       <c r="F225" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G225" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H225" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="I225" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="J225" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -10517,19 +10523,19 @@
         <v>462</v>
       </c>
       <c r="F226" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G226" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H226" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="I226" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="J226" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -10546,19 +10552,19 @@
         <v>462</v>
       </c>
       <c r="F227" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G227" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H227" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="I227" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="J227" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -10575,19 +10581,19 @@
         <v>462</v>
       </c>
       <c r="F228" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G228" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H228" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="I228" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="J228" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -10604,19 +10610,19 @@
         <v>462</v>
       </c>
       <c r="F229" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G229" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H229" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="I229" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="J229" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -10633,16 +10639,16 @@
         <v>462</v>
       </c>
       <c r="F230" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G230" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H230" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="I230" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -10659,16 +10665,16 @@
         <v>462</v>
       </c>
       <c r="F231" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G231" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H231" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="I231" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -10685,16 +10691,16 @@
         <v>462</v>
       </c>
       <c r="F232" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G232" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H232" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="I232" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -10711,16 +10717,16 @@
         <v>463</v>
       </c>
       <c r="F233" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G233" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H233" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I233" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -10737,16 +10743,16 @@
         <v>463</v>
       </c>
       <c r="F234" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G234" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H234" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="I234" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -10763,16 +10769,16 @@
         <v>463</v>
       </c>
       <c r="F235" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G235" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H235" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="I235" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -10789,16 +10795,16 @@
         <v>463</v>
       </c>
       <c r="F236" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G236" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H236" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="I236" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -10815,16 +10821,16 @@
         <v>463</v>
       </c>
       <c r="F237" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G237" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H237" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="I237" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -10841,16 +10847,16 @@
         <v>463</v>
       </c>
       <c r="F238" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G238" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H238" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="I238" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -10867,16 +10873,16 @@
         <v>463</v>
       </c>
       <c r="F239" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G239" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H239" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I239" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -10893,16 +10899,16 @@
         <v>463</v>
       </c>
       <c r="F240" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G240" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H240" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="I240" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -10919,16 +10925,16 @@
         <v>463</v>
       </c>
       <c r="F241" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G241" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H241" t="s">
-        <v>1378</v>
+        <v>1405</v>
       </c>
       <c r="I241" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -10945,16 +10951,16 @@
         <v>463</v>
       </c>
       <c r="F242" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G242" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H242" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="I242" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -10971,16 +10977,16 @@
         <v>463</v>
       </c>
       <c r="F243" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G243" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H243" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="I243" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -10997,16 +11003,16 @@
         <v>463</v>
       </c>
       <c r="F244" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G244" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H244" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="I244" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -11023,16 +11029,16 @@
         <v>463</v>
       </c>
       <c r="F245" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G245" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H245" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="I245" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -11049,16 +11055,16 @@
         <v>463</v>
       </c>
       <c r="F246" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G246" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H246" t="s">
-        <v>1378</v>
+        <v>1405</v>
       </c>
       <c r="I246" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -11075,16 +11081,16 @@
         <v>463</v>
       </c>
       <c r="F247" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G247" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H247" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I247" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -11101,16 +11107,16 @@
         <v>463</v>
       </c>
       <c r="F248" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G248" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H248" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="I248" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -11127,16 +11133,16 @@
         <v>463</v>
       </c>
       <c r="F249" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G249" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H249" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="I249" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -11153,16 +11159,16 @@
         <v>463</v>
       </c>
       <c r="F250" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G250" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H250" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I250" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -11179,16 +11185,16 @@
         <v>463</v>
       </c>
       <c r="F251" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G251" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H251" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I251" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -11205,16 +11211,16 @@
         <v>463</v>
       </c>
       <c r="F252" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G252" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H252" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="I252" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -11231,16 +11237,16 @@
         <v>463</v>
       </c>
       <c r="F253" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G253" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H253" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="I253" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -11257,16 +11263,16 @@
         <v>463</v>
       </c>
       <c r="F254" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G254" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H254" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="I254" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -11283,16 +11289,16 @@
         <v>463</v>
       </c>
       <c r="F255" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G255" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H255" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="I255" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -11309,16 +11315,16 @@
         <v>463</v>
       </c>
       <c r="F256" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G256" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H256" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="I256" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11335,16 +11341,16 @@
         <v>463</v>
       </c>
       <c r="F257" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G257" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H257" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="I257" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11361,16 +11367,16 @@
         <v>463</v>
       </c>
       <c r="F258" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G258" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H258" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="I258" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11387,16 +11393,16 @@
         <v>463</v>
       </c>
       <c r="F259" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G259" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H259" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="I259" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11413,16 +11419,16 @@
         <v>463</v>
       </c>
       <c r="F260" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G260" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H260" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I260" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11439,16 +11445,16 @@
         <v>463</v>
       </c>
       <c r="F261" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G261" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H261" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="I261" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11465,16 +11471,16 @@
         <v>463</v>
       </c>
       <c r="F262" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G262" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H262" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
       <c r="I262" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11491,16 +11497,16 @@
         <v>463</v>
       </c>
       <c r="F263" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G263" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H263" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="I263" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11517,16 +11523,16 @@
         <v>463</v>
       </c>
       <c r="F264" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G264" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H264" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="I264" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11543,16 +11549,16 @@
         <v>463</v>
       </c>
       <c r="F265" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G265" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H265" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="I265" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11569,16 +11575,16 @@
         <v>463</v>
       </c>
       <c r="F266" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G266" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H266" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="I266" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11595,16 +11601,16 @@
         <v>463</v>
       </c>
       <c r="F267" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G267" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H267" t="s">
-        <v>1369</v>
+        <v>1361</v>
       </c>
       <c r="I267" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11621,16 +11627,16 @@
         <v>463</v>
       </c>
       <c r="F268" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G268" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H268" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="I268" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11647,16 +11653,16 @@
         <v>463</v>
       </c>
       <c r="F269" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G269" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H269" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="I269" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11673,16 +11679,16 @@
         <v>463</v>
       </c>
       <c r="F270" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G270" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H270" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="I270" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11699,16 +11705,16 @@
         <v>463</v>
       </c>
       <c r="F271" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G271" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H271" t="s">
-        <v>1369</v>
+        <v>1361</v>
       </c>
       <c r="I271" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11725,16 +11731,16 @@
         <v>463</v>
       </c>
       <c r="F272" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G272" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H272" t="s">
-        <v>1369</v>
+        <v>1361</v>
       </c>
       <c r="I272" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -11751,16 +11757,16 @@
         <v>463</v>
       </c>
       <c r="F273" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G273" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H273" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="I273" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -11777,16 +11783,16 @@
         <v>463</v>
       </c>
       <c r="F274" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G274" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H274" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="I274" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
@@ -11803,16 +11809,16 @@
         <v>463</v>
       </c>
       <c r="F275" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G275" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H275" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="I275" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -11829,16 +11835,16 @@
         <v>463</v>
       </c>
       <c r="F276" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G276" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H276" t="s">
-        <v>1369</v>
+        <v>1361</v>
       </c>
       <c r="I276" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -11855,16 +11861,16 @@
         <v>463</v>
       </c>
       <c r="F277" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G277" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H277" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="I277" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -11881,16 +11887,16 @@
         <v>463</v>
       </c>
       <c r="F278" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G278" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H278" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="I278" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
@@ -11907,16 +11913,16 @@
         <v>463</v>
       </c>
       <c r="F279" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G279" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H279" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I279" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -11933,16 +11939,16 @@
         <v>463</v>
       </c>
       <c r="F280" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G280" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H280" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I280" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -11959,16 +11965,16 @@
         <v>463</v>
       </c>
       <c r="F281" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G281" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H281" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I281" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
@@ -11985,16 +11991,16 @@
         <v>463</v>
       </c>
       <c r="F282" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G282" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H282" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I282" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
@@ -12011,16 +12017,16 @@
         <v>463</v>
       </c>
       <c r="F283" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G283" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H283" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="I283" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
@@ -12037,16 +12043,16 @@
         <v>463</v>
       </c>
       <c r="F284" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G284" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H284" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="I284" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
@@ -12063,19 +12069,19 @@
         <v>463</v>
       </c>
       <c r="F285" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G285" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H285" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="I285" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
       <c r="J285" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
@@ -12092,16 +12098,16 @@
         <v>463</v>
       </c>
       <c r="F286" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G286" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H286" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
       <c r="I286" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
@@ -12118,16 +12124,16 @@
         <v>463</v>
       </c>
       <c r="F287" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G287" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H287" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
       <c r="I287" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
@@ -12144,19 +12150,19 @@
         <v>463</v>
       </c>
       <c r="F288" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G288" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H288" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="I288" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
       <c r="J288" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -12176,19 +12182,19 @@
         <v>463</v>
       </c>
       <c r="F289" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G289" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H289" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="I289" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
       <c r="J289" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -12205,16 +12211,16 @@
         <v>463</v>
       </c>
       <c r="F290" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G290" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H290" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="I290" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -12231,16 +12237,16 @@
         <v>463</v>
       </c>
       <c r="F291" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G291" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H291" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="I291" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -12257,16 +12263,16 @@
         <v>463</v>
       </c>
       <c r="F292" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G292" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H292" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="I292" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -12283,16 +12289,16 @@
         <v>463</v>
       </c>
       <c r="F293" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G293" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H293" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="I293" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -12309,16 +12315,16 @@
         <v>463</v>
       </c>
       <c r="F294" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G294" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H294" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="I294" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -12335,16 +12341,16 @@
         <v>463</v>
       </c>
       <c r="F295" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G295" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H295" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
       <c r="I295" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -12361,16 +12367,16 @@
         <v>463</v>
       </c>
       <c r="F296" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G296" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H296" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
       <c r="I296" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -12387,16 +12393,16 @@
         <v>463</v>
       </c>
       <c r="F297" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G297" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H297" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I297" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -12413,16 +12419,16 @@
         <v>463</v>
       </c>
       <c r="F298" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G298" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H298" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I298" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
@@ -12439,16 +12445,16 @@
         <v>463</v>
       </c>
       <c r="F299" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G299" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H299" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I299" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -12465,16 +12471,16 @@
         <v>463</v>
       </c>
       <c r="F300" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G300" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H300" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
       <c r="I300" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
@@ -12491,19 +12497,19 @@
         <v>463</v>
       </c>
       <c r="F301" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G301" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H301" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="I301" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
       <c r="J301" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -12520,16 +12526,16 @@
         <v>463</v>
       </c>
       <c r="F302" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G302" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H302" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="I302" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
@@ -12549,16 +12555,16 @@
         <v>463</v>
       </c>
       <c r="F303" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G303" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H303" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="I303" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
@@ -12575,16 +12581,16 @@
         <v>463</v>
       </c>
       <c r="F304" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G304" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H304" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="I304" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12601,16 +12607,16 @@
         <v>463</v>
       </c>
       <c r="F305" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G305" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H305" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="I305" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12627,16 +12633,16 @@
         <v>463</v>
       </c>
       <c r="F306" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G306" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H306" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="I306" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12653,16 +12659,16 @@
         <v>463</v>
       </c>
       <c r="F307" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G307" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H307" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="I307" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12679,16 +12685,16 @@
         <v>463</v>
       </c>
       <c r="F308" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G308" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H308" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="I308" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12705,16 +12711,16 @@
         <v>463</v>
       </c>
       <c r="F309" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G309" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H309" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="I309" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12731,16 +12737,16 @@
         <v>463</v>
       </c>
       <c r="F310" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G310" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H310" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="I310" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12757,16 +12763,16 @@
         <v>463</v>
       </c>
       <c r="F311" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G311" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H311" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="I311" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12783,16 +12789,16 @@
         <v>463</v>
       </c>
       <c r="F312" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G312" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H312" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="I312" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12809,16 +12815,16 @@
         <v>463</v>
       </c>
       <c r="F313" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G313" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H313" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="I313" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12835,16 +12841,16 @@
         <v>463</v>
       </c>
       <c r="F314" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G314" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H314" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="I314" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12861,16 +12867,16 @@
         <v>463</v>
       </c>
       <c r="F315" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G315" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H315" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="I315" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12887,16 +12893,16 @@
         <v>463</v>
       </c>
       <c r="F316" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G316" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H316" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="I316" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -12913,16 +12919,16 @@
         <v>463</v>
       </c>
       <c r="F317" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G317" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H317" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="I317" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -12939,16 +12945,16 @@
         <v>463</v>
       </c>
       <c r="F318" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G318" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H318" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="I318" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -12965,16 +12971,16 @@
         <v>463</v>
       </c>
       <c r="F319" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G319" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H319" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="I319" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -12991,16 +12997,16 @@
         <v>463</v>
       </c>
       <c r="F320" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G320" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H320" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="I320" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -13017,16 +13023,16 @@
         <v>463</v>
       </c>
       <c r="F321" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G321" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H321" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="I321" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -13043,16 +13049,16 @@
         <v>463</v>
       </c>
       <c r="F322" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G322" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H322" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="I322" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -13069,16 +13075,16 @@
         <v>463</v>
       </c>
       <c r="F323" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G323" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H323" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="I323" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -13095,16 +13101,16 @@
         <v>463</v>
       </c>
       <c r="F324" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G324" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H324" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="I324" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -13121,16 +13127,16 @@
         <v>463</v>
       </c>
       <c r="F325" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G325" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H325" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="I325" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13147,16 +13153,16 @@
         <v>463</v>
       </c>
       <c r="F326" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G326" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H326" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="I326" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13173,16 +13179,16 @@
         <v>463</v>
       </c>
       <c r="F327" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G327" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H327" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="I327" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13199,16 +13205,16 @@
         <v>463</v>
       </c>
       <c r="F328" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G328" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H328" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="I328" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13225,16 +13231,16 @@
         <v>463</v>
       </c>
       <c r="F329" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G329" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H329" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="I329" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13251,16 +13257,16 @@
         <v>463</v>
       </c>
       <c r="F330" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G330" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H330" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="I330" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13280,16 +13286,16 @@
         <v>463</v>
       </c>
       <c r="F331" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G331" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H331" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="I331" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13306,16 +13312,16 @@
         <v>463</v>
       </c>
       <c r="F332" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G332" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H332" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="I332" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13332,16 +13338,16 @@
         <v>463</v>
       </c>
       <c r="F333" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G333" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H333" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I333" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13358,16 +13364,16 @@
         <v>463</v>
       </c>
       <c r="F334" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G334" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H334" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I334" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13384,16 +13390,16 @@
         <v>463</v>
       </c>
       <c r="F335" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G335" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H335" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="I335" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13410,16 +13416,16 @@
         <v>463</v>
       </c>
       <c r="F336" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G336" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H336" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="I336" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13436,16 +13442,16 @@
         <v>463</v>
       </c>
       <c r="F337" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G337" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H337" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="I337" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13462,16 +13468,16 @@
         <v>463</v>
       </c>
       <c r="F338" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G338" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H338" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="I338" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13488,16 +13494,16 @@
         <v>463</v>
       </c>
       <c r="F339" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G339" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H339" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I339" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13514,16 +13520,16 @@
         <v>463</v>
       </c>
       <c r="F340" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G340" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H340" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="I340" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13540,16 +13546,16 @@
         <v>463</v>
       </c>
       <c r="F341" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G341" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H341" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="I341" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13566,16 +13572,16 @@
         <v>463</v>
       </c>
       <c r="F342" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G342" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H342" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="I342" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13592,16 +13598,16 @@
         <v>463</v>
       </c>
       <c r="F343" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G343" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H343" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="I343" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13621,16 +13627,16 @@
         <v>463</v>
       </c>
       <c r="F344" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G344" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H344" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="I344" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13647,16 +13653,16 @@
         <v>463</v>
       </c>
       <c r="F345" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G345" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H345" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="I345" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13673,16 +13679,16 @@
         <v>463</v>
       </c>
       <c r="F346" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G346" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H346" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="I346" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13699,16 +13705,16 @@
         <v>463</v>
       </c>
       <c r="F347" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G347" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H347" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I347" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13725,16 +13731,16 @@
         <v>463</v>
       </c>
       <c r="F348" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G348" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H348" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="I348" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13751,16 +13757,16 @@
         <v>463</v>
       </c>
       <c r="F349" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G349" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H349" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="I349" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13777,16 +13783,16 @@
         <v>463</v>
       </c>
       <c r="F350" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G350" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H350" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="I350" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -13803,16 +13809,16 @@
         <v>463</v>
       </c>
       <c r="F351" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G351" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H351" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I351" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -13829,16 +13835,16 @@
         <v>463</v>
       </c>
       <c r="F352" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G352" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H352" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I352" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -13855,16 +13861,16 @@
         <v>463</v>
       </c>
       <c r="F353" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G353" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H353" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="I353" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -13881,16 +13887,16 @@
         <v>463</v>
       </c>
       <c r="F354" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G354" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H354" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="I354" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -13907,16 +13913,16 @@
         <v>463</v>
       </c>
       <c r="F355" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G355" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H355" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
       <c r="I355" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -13933,16 +13939,16 @@
         <v>464</v>
       </c>
       <c r="F356" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G356" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H356" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="I356" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -13959,16 +13965,16 @@
         <v>464</v>
       </c>
       <c r="F357" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G357" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H357" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="I357" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -13985,16 +13991,16 @@
         <v>464</v>
       </c>
       <c r="F358" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G358" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H358" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="I358" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -14011,16 +14017,16 @@
         <v>464</v>
       </c>
       <c r="F359" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G359" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H359" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="I359" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -14037,16 +14043,16 @@
         <v>464</v>
       </c>
       <c r="F360" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G360" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H360" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="I360" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -14063,16 +14069,16 @@
         <v>464</v>
       </c>
       <c r="F361" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G361" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H361" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="I361" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -14089,16 +14095,16 @@
         <v>464</v>
       </c>
       <c r="F362" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G362" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H362" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="I362" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
@@ -14115,16 +14121,16 @@
         <v>464</v>
       </c>
       <c r="F363" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G363" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H363" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="I363" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
@@ -14144,16 +14150,16 @@
         <v>464</v>
       </c>
       <c r="F364" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G364" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H364" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="I364" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -14173,16 +14179,16 @@
         <v>464</v>
       </c>
       <c r="F365" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G365" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H365" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="I365" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -14202,16 +14208,16 @@
         <v>464</v>
       </c>
       <c r="F366" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G366" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H366" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="I366" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -14231,16 +14237,16 @@
         <v>464</v>
       </c>
       <c r="F367" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G367" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H367" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="I367" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -14257,16 +14263,16 @@
         <v>464</v>
       </c>
       <c r="F368" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G368" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H368" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="I368" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -14283,16 +14289,16 @@
         <v>464</v>
       </c>
       <c r="F369" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G369" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H369" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="I369" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -14309,16 +14315,16 @@
         <v>464</v>
       </c>
       <c r="F370" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G370" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H370" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="I370" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -14335,16 +14341,16 @@
         <v>464</v>
       </c>
       <c r="F371" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G371" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H371" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="I371" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -14361,16 +14367,16 @@
         <v>464</v>
       </c>
       <c r="F372" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G372" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H372" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="I372" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -14387,16 +14393,16 @@
         <v>464</v>
       </c>
       <c r="F373" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G373" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H373" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="I373" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -14413,16 +14419,16 @@
         <v>464</v>
       </c>
       <c r="F374" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G374" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H374" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="I374" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -14439,16 +14445,16 @@
         <v>464</v>
       </c>
       <c r="F375" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G375" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H375" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="I375" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
@@ -14465,16 +14471,16 @@
         <v>464</v>
       </c>
       <c r="F376" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G376" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H376" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="I376" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -14491,16 +14497,16 @@
         <v>464</v>
       </c>
       <c r="F377" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G377" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H377" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="I377" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -14517,16 +14523,16 @@
         <v>464</v>
       </c>
       <c r="F378" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G378" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H378" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="I378" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -14543,16 +14549,16 @@
         <v>464</v>
       </c>
       <c r="F379" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G379" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H379" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="I379" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
@@ -14572,16 +14578,16 @@
         <v>464</v>
       </c>
       <c r="F380" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G380" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H380" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="I380" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -14598,16 +14604,16 @@
         <v>464</v>
       </c>
       <c r="F381" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G381" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H381" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="I381" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
@@ -14624,16 +14630,16 @@
         <v>464</v>
       </c>
       <c r="F382" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G382" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H382" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="I382" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -14650,16 +14656,16 @@
         <v>464</v>
       </c>
       <c r="F383" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G383" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H383" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="I383" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -14676,16 +14682,16 @@
         <v>464</v>
       </c>
       <c r="F384" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G384" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H384" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="I384" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14702,16 +14708,16 @@
         <v>464</v>
       </c>
       <c r="F385" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G385" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H385" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="I385" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14728,16 +14734,16 @@
         <v>464</v>
       </c>
       <c r="F386" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G386" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H386" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="I386" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14754,16 +14760,16 @@
         <v>464</v>
       </c>
       <c r="F387" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G387" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H387" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="I387" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14780,16 +14786,16 @@
         <v>464</v>
       </c>
       <c r="F388" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G388" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H388" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="I388" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -14806,16 +14812,16 @@
         <v>464</v>
       </c>
       <c r="F389" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G389" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H389" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="I389" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -14832,16 +14838,16 @@
         <v>464</v>
       </c>
       <c r="F390" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G390" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H390" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="I390" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -14858,16 +14864,16 @@
         <v>464</v>
       </c>
       <c r="F391" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G391" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H391" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="I391" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -14884,16 +14890,16 @@
         <v>464</v>
       </c>
       <c r="F392" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G392" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H392" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="I392" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -14910,16 +14916,16 @@
         <v>464</v>
       </c>
       <c r="F393" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G393" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H393" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="I393" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -14936,16 +14942,16 @@
         <v>464</v>
       </c>
       <c r="F394" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G394" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H394" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="I394" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -14962,16 +14968,16 @@
         <v>464</v>
       </c>
       <c r="F395" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G395" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H395" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="I395" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -14988,16 +14994,16 @@
         <v>464</v>
       </c>
       <c r="F396" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G396" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H396" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="I396" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -15014,16 +15020,16 @@
         <v>464</v>
       </c>
       <c r="F397" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G397" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H397" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="I397" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -15040,16 +15046,16 @@
         <v>464</v>
       </c>
       <c r="F398" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G398" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H398" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="I398" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -15066,16 +15072,16 @@
         <v>464</v>
       </c>
       <c r="F399" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G399" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H399" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="I399" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -15092,16 +15098,16 @@
         <v>464</v>
       </c>
       <c r="F400" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G400" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H400" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="I400" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -15121,16 +15127,16 @@
         <v>464</v>
       </c>
       <c r="F401" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G401" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H401" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="I401" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -15150,16 +15156,16 @@
         <v>464</v>
       </c>
       <c r="F402" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G402" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H402" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="I402" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -15179,16 +15185,16 @@
         <v>464</v>
       </c>
       <c r="F403" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G403" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H403" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="I403" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -15208,16 +15214,16 @@
         <v>464</v>
       </c>
       <c r="F404" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G404" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H404" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="I404" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -15237,16 +15243,16 @@
         <v>464</v>
       </c>
       <c r="F405" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G405" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H405" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I405" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -15266,16 +15272,16 @@
         <v>464</v>
       </c>
       <c r="F406" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G406" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H406" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I406" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -15295,16 +15301,16 @@
         <v>464</v>
       </c>
       <c r="F407" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G407" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H407" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I407" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -15324,16 +15330,16 @@
         <v>464</v>
       </c>
       <c r="F408" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G408" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H408" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I408" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -15353,16 +15359,16 @@
         <v>464</v>
       </c>
       <c r="F409" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G409" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H409" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I409" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -15382,16 +15388,16 @@
         <v>464</v>
       </c>
       <c r="F410" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G410" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H410" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I410" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -15408,16 +15414,16 @@
         <v>464</v>
       </c>
       <c r="F411" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G411" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H411" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="I411" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -15434,16 +15440,16 @@
         <v>464</v>
       </c>
       <c r="F412" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G412" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H412" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="I412" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -15460,16 +15466,16 @@
         <v>464</v>
       </c>
       <c r="F413" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G413" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H413" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I413" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -15486,16 +15492,16 @@
         <v>464</v>
       </c>
       <c r="F414" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G414" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H414" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I414" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -15512,16 +15518,16 @@
         <v>464</v>
       </c>
       <c r="F415" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G415" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H415" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I415" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -15538,16 +15544,16 @@
         <v>464</v>
       </c>
       <c r="F416" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G416" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H416" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I416" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
@@ -15567,13 +15573,13 @@
         <v>539</v>
       </c>
       <c r="G417" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H417" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I417" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
@@ -15590,16 +15596,16 @@
         <v>464</v>
       </c>
       <c r="F418" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G418" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H418" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="I418" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
@@ -15616,16 +15622,16 @@
         <v>464</v>
       </c>
       <c r="F419" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G419" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H419" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="I419" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
@@ -15642,16 +15648,16 @@
         <v>464</v>
       </c>
       <c r="F420" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G420" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H420" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="I420" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
@@ -15668,16 +15674,16 @@
         <v>464</v>
       </c>
       <c r="F421" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G421" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H421" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="I421" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
@@ -15694,16 +15700,16 @@
         <v>464</v>
       </c>
       <c r="F422" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G422" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H422" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="I422" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.3">
@@ -15720,16 +15726,16 @@
         <v>464</v>
       </c>
       <c r="F423" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G423" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H423" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="I423" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.3">
@@ -15746,16 +15752,16 @@
         <v>464</v>
       </c>
       <c r="F424" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G424" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H424" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="I424" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
@@ -15772,16 +15778,16 @@
         <v>464</v>
       </c>
       <c r="F425" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G425" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H425" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="I425" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
@@ -15798,16 +15804,16 @@
         <v>464</v>
       </c>
       <c r="F426" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G426" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H426" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="I426" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.3">
@@ -15824,16 +15830,16 @@
         <v>464</v>
       </c>
       <c r="F427" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G427" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H427" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="I427" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.3">
@@ -15850,16 +15856,16 @@
         <v>464</v>
       </c>
       <c r="F428" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G428" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H428" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="I428" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.3">
@@ -15876,16 +15882,16 @@
         <v>464</v>
       </c>
       <c r="F429" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G429" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H429" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="I429" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.3">
@@ -15902,16 +15908,16 @@
         <v>464</v>
       </c>
       <c r="F430" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G430" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H430" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="I430" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.3">
@@ -15928,16 +15934,16 @@
         <v>464</v>
       </c>
       <c r="F431" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G431" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H431" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="I431" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.3">
@@ -15954,16 +15960,16 @@
         <v>464</v>
       </c>
       <c r="F432" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G432" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H432" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="I432" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
@@ -15980,16 +15986,16 @@
         <v>464</v>
       </c>
       <c r="F433" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G433" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H433" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="I433" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.3">
@@ -16006,16 +16012,16 @@
         <v>464</v>
       </c>
       <c r="F434" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G434" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H434" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="I434" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.3">
@@ -16032,16 +16038,16 @@
         <v>464</v>
       </c>
       <c r="F435" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G435" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H435" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="I435" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
@@ -16061,19 +16067,19 @@
         <v>464</v>
       </c>
       <c r="F436" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G436" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H436" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="I436" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="J436" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.3">
@@ -16090,19 +16096,19 @@
         <v>464</v>
       </c>
       <c r="F437" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G437" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H437" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="I437" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="J437" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.3">
@@ -16119,19 +16125,19 @@
         <v>464</v>
       </c>
       <c r="F438" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G438" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H438" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="I438" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="J438" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.3">
@@ -16148,16 +16154,16 @@
         <v>464</v>
       </c>
       <c r="F439" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G439" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H439" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="I439" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.3">
@@ -16174,16 +16180,16 @@
         <v>464</v>
       </c>
       <c r="F440" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G440" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H440" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="I440" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.3">
@@ -16200,16 +16206,16 @@
         <v>464</v>
       </c>
       <c r="F441" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G441" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H441" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="I441" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.3">
@@ -16226,16 +16232,16 @@
         <v>464</v>
       </c>
       <c r="F442" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G442" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H442" t="s">
-        <v>1343</v>
+        <v>1406</v>
       </c>
       <c r="I442" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.3">
@@ -16252,16 +16258,16 @@
         <v>464</v>
       </c>
       <c r="F443" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G443" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H443" t="s">
-        <v>1343</v>
+        <v>1406</v>
       </c>
       <c r="I443" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.3">
@@ -16278,16 +16284,16 @@
         <v>464</v>
       </c>
       <c r="F444" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G444" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H444" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="I444" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.3">
@@ -16304,16 +16310,16 @@
         <v>464</v>
       </c>
       <c r="F445" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G445" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H445" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="I445" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.3">
@@ -16330,16 +16336,16 @@
         <v>464</v>
       </c>
       <c r="F446" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G446" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H446" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="I446" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.3">
@@ -16356,16 +16362,16 @@
         <v>464</v>
       </c>
       <c r="F447" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G447" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H447" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="I447" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.3">
@@ -16382,16 +16388,16 @@
         <v>464</v>
       </c>
       <c r="F448" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G448" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H448" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="I448" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.3">
@@ -16408,16 +16414,16 @@
         <v>464</v>
       </c>
       <c r="F449" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G449" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H449" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="I449" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.3">
@@ -16434,16 +16440,16 @@
         <v>464</v>
       </c>
       <c r="F450" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G450" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H450" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="I450" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.3">
@@ -16460,16 +16466,16 @@
         <v>464</v>
       </c>
       <c r="F451" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G451" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H451" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="I451" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.3">
@@ -16486,16 +16492,16 @@
         <v>464</v>
       </c>
       <c r="F452" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G452" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H452" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="I452" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.3">
@@ -16512,16 +16518,16 @@
         <v>464</v>
       </c>
       <c r="F453" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G453" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H453" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="I453" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.3">
@@ -16541,16 +16547,16 @@
         <v>464</v>
       </c>
       <c r="F454" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G454" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H454" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="I454" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.3">
@@ -16567,16 +16573,16 @@
         <v>464</v>
       </c>
       <c r="F455" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G455" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H455" t="s">
-        <v>1349</v>
+        <v>1402</v>
       </c>
       <c r="I455" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.3">
@@ -16593,16 +16599,16 @@
         <v>464</v>
       </c>
       <c r="F456" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G456" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H456" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="I456" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
     </row>
   </sheetData>
